--- a/Resultados/Mercado mundial - Cebollas, chalotes, verdes.xlsx
+++ b/Resultados/Mercado mundial - Cebollas, chalotes, verdes.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Mali" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Angola" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Japan" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Republic of Korea" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Malí" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Angola" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Japón" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="República de Corea" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,9 +301,8 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -407,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -433,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -489,18 +488,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Producción (Miles de Toneladas)</a:t>
+              <a:t>Producción (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -515,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -558,7 +557,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -571,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -597,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -653,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -679,21 +678,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$22</f>
+              <f>'Países importadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$22</f>
+              <f>'Países importadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -735,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -761,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -817,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -843,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mali'!$B$12:$B$73</f>
+              <f>'Malí'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mali'!$C$12:$C$73</f>
+              <f>'Malí'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -899,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -925,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Angola'!$B$12:$B$73</f>
+              <f>'Angola'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Angola'!$C$12:$C$73</f>
+              <f>'Angola'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -981,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1007,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Japan'!$B$12:$B$73</f>
+              <f>'Japón'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Japan'!$C$12:$C$73</f>
+              <f>'Japón'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1063,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1089,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Republic of Korea'!$B$12:$B$73</f>
+              <f>'República de Corea'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Republic of Korea'!$C$12:$C$73</f>
+              <f>'República de Corea'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1145,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1163,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1203,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1215,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1233,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1273,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1285,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1303,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1343,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1355,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1373,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1413,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1425,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1440,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1462,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1477,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1492,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1514,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1529,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1544,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1566,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1581,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1596,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1618,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1633,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1648,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1670,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2011,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2060,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2139,10 +2138,10 @@
         <v>224593</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>22.5667</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>5068323.93</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>22.5667</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>568670.8</v>
@@ -2161,10 +2160,10 @@
         <v>226167</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>21.6205</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>4889848.65</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>21.6205</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>623844.8</v>
@@ -2183,10 +2182,10 @@
         <v>228487</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>22.3099</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>5097526.56</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>22.3099</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>590011.75</v>
@@ -2205,10 +2204,10 @@
         <v>226747</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>22.3087</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>5058417.05</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>22.3087</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>649657.16</v>
@@ -2227,10 +2226,10 @@
         <v>228131</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>4895688.54</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>21.46</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>788657</v>
@@ -2249,10 +2248,10 @@
         <v>238269</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>21.4175</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>5103141.36</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>21.4175</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>457612.9</v>
@@ -2271,10 +2270,10 @@
         <v>241975</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>21.457</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>5192060.88</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>21.457</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>404982.14</v>
@@ -2293,10 +2292,10 @@
         <v>231998</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>21.744</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>5044563.03</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>21.744</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>537609.38</v>
@@ -2315,10 +2314,10 @@
         <v>224015</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>21.9225</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>4910968.12</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>21.9225</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>581965.6</v>
@@ -2337,10 +2336,10 @@
         <v>222525</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>21.4939</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>4782919.3</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>21.4939</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>472320.96</v>
@@ -2359,10 +2358,10 @@
         <v>235929</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>21.0725</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>4971597.37</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>21.0725</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>569067</v>
@@ -2381,10 +2380,10 @@
         <v>238274</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>20.5691</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>4901081.15</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>20.5691</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>487432</v>
@@ -2403,10 +2402,10 @@
         <v>240078</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>20.5688</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>4938114.94</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>20.5688</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>526662</v>
@@ -2425,10 +2424,10 @@
         <v>233126</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>20.2109</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>4711670.2</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>20.2109</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>496249</v>
@@ -2447,10 +2446,10 @@
         <v>235134</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>20.2131</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>4752801.29</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>20.2131</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>414679</v>
@@ -2469,10 +2468,10 @@
         <v>233468</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>20.2016</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>4716410.36</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>20.2016</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>477743</v>
@@ -2491,10 +2490,10 @@
         <v>230537</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>19.6448</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>4528855.56</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>19.6448</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>417665</v>
@@ -2513,10 +2512,10 @@
         <v>229615</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>19.9482</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>4580416.28</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>19.9482</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>409846</v>
@@ -2535,10 +2534,10 @@
         <v>224374</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>18.7383</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>4204383.5</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>18.7383</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>433094</v>
@@ -2557,10 +2556,10 @@
         <v>226945</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>19.5603</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>4439112.31</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>19.5603</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>381140</v>
@@ -2579,10 +2578,10 @@
         <v>213988</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>19.3003</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>4130038.61</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>19.3003</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>339347</v>
@@ -2601,10 +2600,10 @@
         <v>215229</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>18.8438</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>4055732.05</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>18.8438</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>256153</v>
@@ -2623,10 +2622,10 @@
         <v>215824</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>18.3692</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>3964500.23</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>18.3692</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>261888.5</v>
@@ -2645,10 +2644,10 @@
         <v>189382</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>19.3996</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>3673944.04</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>19.3996</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>267846.3</v>
@@ -2667,10 +2666,10 @@
         <v>179578</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>19.007</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>3413233.45</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>19.007</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>400610.67</v>
@@ -2689,10 +2688,10 @@
         <v>180894</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>17.7784</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>3215995.73</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>17.7784</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>453888.15</v>
@@ -2711,10 +2710,10 @@
         <v>184840</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>17.8678</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>3302685.47</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>17.8678</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>408893.64</v>
@@ -2733,10 +2732,10 @@
         <v>173845</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>18.9179</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>3288769.45</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>18.9179</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>333684</v>
@@ -2755,10 +2754,10 @@
         <v>172435</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>18.9281</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3263875.53</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>18.9281</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>242914</v>
@@ -2777,10 +2776,10 @@
         <v>165082</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>19.0759</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>3149095.83</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>19.0759</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>220051</v>
@@ -2799,10 +2798,10 @@
         <v>161257</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>17.9809</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>2899547.6</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>17.9809</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>186734</v>
@@ -2821,10 +2820,10 @@
         <v>162670</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>17.3764</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2826619.67</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>17.3764</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>183747</v>
@@ -2843,10 +2842,10 @@
         <v>165340</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>16.8362</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2783693.06</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>16.8362</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>174272</v>
@@ -2865,10 +2864,10 @@
         <v>162870</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>15.4073</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2509379</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>15.4073</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>123620</v>
@@ -2887,10 +2886,10 @@
         <v>155007</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>15.5807</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2415114</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>15.5807</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>88106</v>
@@ -2909,10 +2908,10 @@
         <v>155469</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>15.4441</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>2401073</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>15.4441</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>82162</v>
@@ -2931,10 +2930,10 @@
         <v>151290</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>15.183</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2297031</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>15.183</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>165442</v>
@@ -2953,10 +2952,10 @@
         <v>158102</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>15.4468</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2442173</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>15.4468</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>174965</v>
@@ -2975,10 +2974,10 @@
         <v>150616</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>15.2702</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2299935</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>15.2702</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>165506</v>
@@ -2997,10 +2996,10 @@
         <v>143463</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>15.3008</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>2195105</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>15.3008</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>116249</v>
@@ -3019,10 +3018,10 @@
         <v>139102</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>14.309</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1990417</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>14.309</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>123767</v>
@@ -3041,10 +3040,10 @@
         <v>143029</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>14.417</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>2062050</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>14.417</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>122664</v>
@@ -3063,10 +3062,10 @@
         <v>135510</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>14.5158</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1967041</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>14.5158</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>122759</v>
@@ -3085,10 +3084,10 @@
         <v>125642</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1924840</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>15.32</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>73803</v>
@@ -3107,10 +3106,10 @@
         <v>120669</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>15.9487</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1924511</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>15.9487</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>76216</v>
@@ -3129,10 +3128,10 @@
         <v>115109</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>14.0077</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1612411</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>14.0077</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>99376</v>
@@ -3151,10 +3150,10 @@
         <v>114301</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>13.916</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1590609</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>13.916</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>87656</v>
@@ -3173,10 +3172,10 @@
         <v>107212</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>13.0626</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1400468</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>13.0626</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>83503</v>
@@ -3195,10 +3194,10 @@
         <v>104227</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>13.4568</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1402561</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>13.4568</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>54006</v>
@@ -3217,10 +3216,10 @@
         <v>97765</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>13.2653</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1296882</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>13.2653</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>72699</v>
@@ -3239,10 +3238,10 @@
         <v>98457</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>12.9242</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1272482</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>12.9242</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>64935</v>
@@ -3261,10 +3260,10 @@
         <v>100152</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>13.2994</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1331958</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>13.2994</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>60062</v>
@@ -3283,10 +3282,10 @@
         <v>99236</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>13.4941</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1339097</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>13.4941</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>60640</v>
@@ -3305,10 +3304,10 @@
         <v>103783</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>12.814</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1329878</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>12.814</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>44170</v>
@@ -3327,10 +3326,10 @@
         <v>112284</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>11.9111</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1337426</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>11.9111</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>66491</v>
@@ -3349,10 +3348,10 @@
         <v>98058</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>12.8475</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1259796</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>12.8475</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>57081</v>
@@ -3371,10 +3370,10 @@
         <v>94072</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>13.0004</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1222975</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>13.0004</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>24026</v>
@@ -3392,10 +3391,10 @@
         <v>91465</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>13.1394</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1201791</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>13.1394</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>30399</v>
@@ -3413,10 +3412,10 @@
         <v>90407</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>12.9444</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1170266</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>12.9444</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>77245</v>
@@ -3434,10 +3433,10 @@
         <v>90089</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>12.9247</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1164370</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>12.9247</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>110289</v>
@@ -3455,10 +3454,10 @@
         <v>87803</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>12.0841</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1061018</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>12.0841</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>47597</v>
@@ -3476,10 +3475,10 @@
         <v>83296</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>11.7822</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>981411</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>11.7822</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>28494</v>
@@ -3497,10 +3496,10 @@
         <v>80212</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>10.8661</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>871594</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>10.8661</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>28293</v>
@@ -3787,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3883,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3897,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Malí</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3925,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Japón</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3939,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>República de Corea</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3953,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Túnez</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3981,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Nueva Zelandia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3995,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tailandia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4023,43 +4022,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>98629.17</v>
+        <v>842144.5999999996</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.01945991837976307</v>
+        <v>0.1661584010081218</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>743515.4299999997</v>
+        <v>5068323.93</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.1466984826283587</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>5068323.93</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4070,41 +4061,40 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="12" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="35" t="n"/>
+      <c r="C28" s="33" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="35" t="n"/>
+      <c r="C29" s="33" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="35" t="n"/>
+      <c r="C30" s="33" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="35" t="n"/>
+      <c r="C31" s="33" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="35" t="n"/>
+      <c r="C32" s="33" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="35" t="n"/>
+      <c r="C33" s="33" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="35" t="n"/>
+      <c r="C34" s="33" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4126,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4225,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Nueva Zelandia</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4239,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Tayikistán</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4253,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4267,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4281,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Marruecos</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4309,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4351,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4408,124 +4398,124 @@
     <row r="26">
       <c r="B26" s="13" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="36" t="n"/>
+      <c r="D26" s="35" t="n"/>
       <c r="E26" s="25" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="36" t="n"/>
+      <c r="D27" s="35" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="36" t="n"/>
+      <c r="D28" s="35" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="36" t="n"/>
+      <c r="D29" s="35" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="36" t="n"/>
+      <c r="D30" s="35" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="36" t="n"/>
+      <c r="D31" s="35" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="36" t="n"/>
+      <c r="D32" s="35" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="36" t="n"/>
+      <c r="D33" s="35" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="36" t="n"/>
+      <c r="D34" s="35" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="D35" s="35" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="D36" s="35" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="37" t="n"/>
+      <c r="D37" s="36" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="37" t="n"/>
+      <c r="D38" s="36" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="37" t="n"/>
+      <c r="D39" s="36" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="37" t="n"/>
+      <c r="D40" s="36" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="37" t="n"/>
+      <c r="D41" s="36" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="37" t="n"/>
+      <c r="D42" s="36" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="37" t="n"/>
+      <c r="D43" s="36" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="37" t="n"/>
+      <c r="D44" s="36" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="37" t="n"/>
+      <c r="D45" s="36" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4547,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4657,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4713,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4741,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4755,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Trinidad y Tabago</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4769,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4822,58 +4812,58 @@
     </row>
     <row r="26">
       <c r="B26" s="15" t="n"/>
-      <c r="C26" s="38" t="n"/>
+      <c r="C26" s="37" t="n"/>
       <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="38" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="38" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="38" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="38" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="38" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="38" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="38" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="38" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="38" t="n"/>
-      <c r="D35" s="37" t="n"/>
+      <c r="C35" s="37" t="n"/>
+      <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="38" t="n"/>
-      <c r="D36" s="37" t="n"/>
+      <c r="C36" s="37" t="n"/>
+      <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4942,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5021,14 +5011,17 @@
         <v>22505</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>38.7573</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>872231.23</v>
       </c>
-      <c r="E12" s="29" t="n">
-        <v>38.7573</v>
-      </c>
-      <c r="F12" s="29" t="inlineStr"/>
-      <c r="G12" s="29" t="inlineStr"/>
-      <c r="H12" s="29" t="n"/>
+      <c r="F12" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -5039,14 +5032,17 @@
         <v>22536</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>38.7827</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>874005.99</v>
       </c>
-      <c r="E13" s="29" t="n">
-        <v>38.7827</v>
-      </c>
-      <c r="F13" s="29" t="inlineStr"/>
-      <c r="G13" s="29" t="inlineStr"/>
-      <c r="H13" s="29" t="n"/>
+      <c r="F13" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -5057,14 +5053,17 @@
         <v>22511</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>38.7644</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>872627.8199999999</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>38.7644</v>
-      </c>
-      <c r="F14" s="29" t="inlineStr"/>
-      <c r="G14" s="29" t="inlineStr"/>
-      <c r="H14" s="29" t="n"/>
+      <c r="F14" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -5075,14 +5074,17 @@
         <v>22468</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>38.7246</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>870059.89</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>38.7246</v>
-      </c>
-      <c r="F15" s="29" t="inlineStr"/>
-      <c r="G15" s="29" t="inlineStr"/>
-      <c r="H15" s="29" t="n"/>
+      <c r="F15" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -5093,14 +5095,17 @@
         <v>22629</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>38.8587</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>879330.26</v>
       </c>
-      <c r="E16" s="29" t="n">
-        <v>38.8587</v>
-      </c>
-      <c r="F16" s="29" t="inlineStr"/>
-      <c r="G16" s="29" t="inlineStr"/>
-      <c r="H16" s="29" t="n"/>
+      <c r="F16" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -5111,14 +5116,17 @@
         <v>22436</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>38.7091</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>868493.3199999999</v>
       </c>
-      <c r="E17" s="29" t="n">
-        <v>38.7091</v>
-      </c>
-      <c r="F17" s="29" t="inlineStr"/>
-      <c r="G17" s="29" t="inlineStr"/>
-      <c r="H17" s="29" t="n"/>
+      <c r="F17" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -5129,14 +5137,17 @@
         <v>22338</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>38.6045</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>862356.08</v>
       </c>
-      <c r="E18" s="29" t="n">
-        <v>38.6045</v>
-      </c>
-      <c r="F18" s="29" t="inlineStr"/>
-      <c r="G18" s="29" t="inlineStr"/>
-      <c r="H18" s="29" t="n"/>
+      <c r="F18" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -5147,14 +5158,17 @@
         <v>22289</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>38.5376</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>858957.2</v>
       </c>
-      <c r="E19" s="29" t="n">
-        <v>38.5376</v>
-      </c>
-      <c r="F19" s="29" t="inlineStr"/>
-      <c r="G19" s="29" t="inlineStr"/>
-      <c r="H19" s="29" t="n"/>
+      <c r="F19" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -5165,14 +5179,17 @@
         <v>23531</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>38.5096</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>906185.64</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>38.5096</v>
-      </c>
-      <c r="F20" s="29" t="inlineStr"/>
-      <c r="G20" s="29" t="inlineStr"/>
-      <c r="H20" s="29" t="n"/>
+      <c r="F20" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -5183,14 +5200,17 @@
         <v>21735</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>38.6789</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>840685.95</v>
       </c>
-      <c r="E21" s="29" t="n">
-        <v>38.6789</v>
-      </c>
-      <c r="F21" s="29" t="inlineStr"/>
-      <c r="G21" s="29" t="inlineStr"/>
-      <c r="H21" s="29" t="n"/>
+      <c r="F21" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -5201,14 +5221,17 @@
         <v>21600</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>38.4259</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>830000</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>38.4259</v>
-      </c>
-      <c r="F22" s="29" t="inlineStr"/>
-      <c r="G22" s="29" t="inlineStr"/>
-      <c r="H22" s="29" t="n"/>
+      <c r="F22" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -5219,14 +5242,17 @@
         <v>21500</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>38.1395</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>820000</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>38.1395</v>
-      </c>
-      <c r="F23" s="29" t="inlineStr"/>
-      <c r="G23" s="29" t="inlineStr"/>
-      <c r="H23" s="29" t="n"/>
+      <c r="F23" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -5237,14 +5263,17 @@
         <v>21300</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>38.169</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>813000</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>38.169</v>
-      </c>
-      <c r="F24" s="29" t="inlineStr"/>
-      <c r="G24" s="29" t="inlineStr"/>
-      <c r="H24" s="29" t="n"/>
+      <c r="F24" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -5255,14 +5284,17 @@
         <v>20600</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>38.1068</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>785000</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>38.1068</v>
-      </c>
-      <c r="F25" s="29" t="inlineStr"/>
-      <c r="G25" s="29" t="inlineStr"/>
-      <c r="H25" s="29" t="n"/>
+      <c r="F25" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -5273,14 +5305,17 @@
         <v>20000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>38</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>760000</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>38</v>
-      </c>
-      <c r="F26" s="29" t="inlineStr"/>
-      <c r="G26" s="29" t="inlineStr"/>
-      <c r="H26" s="29" t="n"/>
+      <c r="F26" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -5291,14 +5326,17 @@
         <v>19000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>38.1579</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>725000</v>
       </c>
-      <c r="E27" s="29" t="n">
-        <v>38.1579</v>
-      </c>
-      <c r="F27" s="29" t="inlineStr"/>
-      <c r="G27" s="29" t="inlineStr"/>
-      <c r="H27" s="29" t="n"/>
+      <c r="F27" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -5309,14 +5347,17 @@
         <v>18000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>38.8889</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>700000</v>
       </c>
-      <c r="E28" s="29" t="n">
-        <v>38.8889</v>
-      </c>
-      <c r="F28" s="29" t="inlineStr"/>
-      <c r="G28" s="29" t="inlineStr"/>
-      <c r="H28" s="29" t="n"/>
+      <c r="F28" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -5327,14 +5368,17 @@
         <v>17000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>40</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>680000</v>
       </c>
-      <c r="E29" s="29" t="n">
-        <v>40</v>
-      </c>
-      <c r="F29" s="29" t="inlineStr"/>
-      <c r="G29" s="29" t="inlineStr"/>
-      <c r="H29" s="29" t="n"/>
+      <c r="F29" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -5345,14 +5389,17 @@
         <v>15000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>40</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>600000</v>
       </c>
-      <c r="E30" s="29" t="n">
-        <v>40</v>
-      </c>
-      <c r="F30" s="29" t="inlineStr"/>
-      <c r="G30" s="29" t="inlineStr"/>
-      <c r="H30" s="29" t="n"/>
+      <c r="F30" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -5363,14 +5410,17 @@
         <v>14000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>40.3571</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>565000</v>
       </c>
-      <c r="E31" s="29" t="n">
-        <v>40.3571</v>
-      </c>
-      <c r="F31" s="29" t="inlineStr"/>
-      <c r="G31" s="29" t="inlineStr"/>
-      <c r="H31" s="29" t="n"/>
+      <c r="F31" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -5381,14 +5431,17 @@
         <v>13000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>38.4615</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>500000</v>
       </c>
-      <c r="E32" s="29" t="n">
-        <v>38.4615</v>
-      </c>
-      <c r="F32" s="29" t="inlineStr"/>
-      <c r="G32" s="29" t="inlineStr"/>
-      <c r="H32" s="29" t="n"/>
+      <c r="F32" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -5399,14 +5452,17 @@
         <v>12500</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>400000</v>
       </c>
-      <c r="E33" s="29" t="n">
-        <v>32</v>
-      </c>
-      <c r="F33" s="29" t="inlineStr"/>
-      <c r="G33" s="29" t="inlineStr"/>
-      <c r="H33" s="29" t="n"/>
+      <c r="F33" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -5417,14 +5473,17 @@
         <v>12000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>25</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>300000</v>
       </c>
-      <c r="E34" s="29" t="n">
-        <v>25</v>
-      </c>
-      <c r="F34" s="29" t="inlineStr"/>
-      <c r="G34" s="29" t="inlineStr"/>
-      <c r="H34" s="29" t="n"/>
+      <c r="F34" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -5435,14 +5494,17 @@
         <v>10500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>26.6667</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>280000</v>
       </c>
-      <c r="E35" s="29" t="n">
-        <v>26.6667</v>
-      </c>
-      <c r="F35" s="29" t="inlineStr"/>
-      <c r="G35" s="29" t="inlineStr"/>
-      <c r="H35" s="29" t="n"/>
+      <c r="F35" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -5453,14 +5515,17 @@
         <v>9000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>25.5556</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>230000</v>
       </c>
-      <c r="E36" s="29" t="n">
-        <v>25.5556</v>
-      </c>
-      <c r="F36" s="29" t="inlineStr"/>
-      <c r="G36" s="29" t="inlineStr"/>
-      <c r="H36" s="29" t="n"/>
+      <c r="F36" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -5471,14 +5536,17 @@
         <v>8000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>28.125</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>225000</v>
       </c>
-      <c r="E37" s="29" t="n">
-        <v>28.125</v>
-      </c>
-      <c r="F37" s="29" t="inlineStr"/>
-      <c r="G37" s="29" t="inlineStr"/>
-      <c r="H37" s="29" t="n"/>
+      <c r="F37" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -5489,14 +5557,17 @@
         <v>7000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>30.7143</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>215000</v>
       </c>
-      <c r="E38" s="29" t="n">
-        <v>30.7143</v>
-      </c>
-      <c r="F38" s="29" t="inlineStr"/>
-      <c r="G38" s="29" t="inlineStr"/>
-      <c r="H38" s="29" t="n"/>
+      <c r="F38" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -5507,14 +5578,17 @@
         <v>6000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>33.3333</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>200000</v>
       </c>
-      <c r="E39" s="29" t="n">
-        <v>33.3333</v>
-      </c>
-      <c r="F39" s="29" t="inlineStr"/>
-      <c r="G39" s="29" t="inlineStr"/>
-      <c r="H39" s="29" t="n"/>
+      <c r="F39" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -5525,14 +5599,17 @@
         <v>5649</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>33.4161</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>188760.85</v>
       </c>
-      <c r="E40" s="29" t="n">
-        <v>33.4161</v>
-      </c>
-      <c r="F40" s="29" t="inlineStr"/>
-      <c r="G40" s="29" t="inlineStr"/>
-      <c r="H40" s="29" t="n"/>
+      <c r="F40" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -5543,14 +5620,17 @@
         <v>5474</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>32.8811</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>180000</v>
       </c>
-      <c r="E41" s="29" t="n">
-        <v>32.8811</v>
-      </c>
-      <c r="F41" s="29" t="inlineStr"/>
-      <c r="G41" s="29" t="inlineStr"/>
-      <c r="H41" s="29" t="n"/>
+      <c r="F41" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -5561,14 +5641,17 @@
         <v>5000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>32</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>160000</v>
       </c>
-      <c r="E42" s="29" t="n">
-        <v>32</v>
-      </c>
-      <c r="F42" s="29" t="inlineStr"/>
-      <c r="G42" s="29" t="inlineStr"/>
-      <c r="H42" s="29" t="n"/>
+      <c r="F42" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -5579,14 +5662,17 @@
         <v>4900</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>30.6122</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>150000</v>
       </c>
-      <c r="E43" s="29" t="n">
-        <v>30.6122</v>
-      </c>
-      <c r="F43" s="29" t="inlineStr"/>
-      <c r="G43" s="29" t="inlineStr"/>
-      <c r="H43" s="29" t="n"/>
+      <c r="F43" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -5597,14 +5683,17 @@
         <v>4800</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>30.2083</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>145000</v>
       </c>
-      <c r="E44" s="29" t="n">
-        <v>30.2083</v>
-      </c>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
-      <c r="H44" s="29" t="n"/>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -5615,14 +5704,17 @@
         <v>4500</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>29.3333</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>132000</v>
       </c>
-      <c r="E45" s="29" t="n">
-        <v>29.3333</v>
-      </c>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
-      <c r="H45" s="29" t="n"/>
+      <c r="F45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -5633,14 +5725,17 @@
         <v>4000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>30</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>120000</v>
       </c>
-      <c r="E46" s="29" t="n">
-        <v>30</v>
-      </c>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="F46" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -5651,14 +5746,17 @@
         <v>3800</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>26.3158</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>100000</v>
       </c>
-      <c r="E47" s="29" t="n">
-        <v>26.3158</v>
-      </c>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="F47" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -5669,14 +5767,17 @@
         <v>3700</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>27.027</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>100000</v>
       </c>
-      <c r="E48" s="29" t="n">
-        <v>27.027</v>
-      </c>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="F48" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -5687,14 +5788,17 @@
         <v>3600</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>26.6667</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>96000</v>
       </c>
-      <c r="E49" s="29" t="n">
-        <v>26.6667</v>
-      </c>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="F49" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -5705,14 +5809,17 @@
         <v>3500</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>22.8571</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>80000</v>
       </c>
-      <c r="E50" s="29" t="n">
-        <v>22.8571</v>
-      </c>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="F50" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -5723,14 +5830,17 @@
         <v>2900</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>22.4138</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>65000</v>
       </c>
-      <c r="E51" s="29" t="n">
-        <v>22.4138</v>
-      </c>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="F51" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -5741,14 +5851,17 @@
         <v>2700</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>18.5185</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>50000</v>
       </c>
-      <c r="E52" s="29" t="n">
-        <v>18.5185</v>
-      </c>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="F52" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -5759,14 +5872,17 @@
         <v>2500</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>18</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>45000</v>
       </c>
-      <c r="E53" s="29" t="n">
-        <v>18</v>
-      </c>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="F53" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -5777,14 +5893,17 @@
         <v>2300</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>18.2609</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>42000</v>
       </c>
-      <c r="E54" s="29" t="n">
-        <v>18.2609</v>
-      </c>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="F54" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -5795,14 +5914,17 @@
         <v>2200</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>40000</v>
       </c>
-      <c r="E55" s="29" t="n">
-        <v>18.1818</v>
-      </c>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="F55" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -5813,14 +5935,17 @@
         <v>2000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>19</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>38000</v>
       </c>
-      <c r="E56" s="29" t="n">
-        <v>19</v>
-      </c>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="F56" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -5831,14 +5956,17 @@
         <v>2000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>18</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>36000</v>
       </c>
-      <c r="E57" s="29" t="n">
-        <v>18</v>
-      </c>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="F57" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -5849,14 +5977,17 @@
         <v>1800</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>19.4444</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>35000</v>
       </c>
-      <c r="E58" s="29" t="n">
-        <v>19.4444</v>
-      </c>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="F58" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -5867,14 +5998,17 @@
         <v>1800</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>18.3333</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>33000</v>
       </c>
-      <c r="E59" s="29" t="n">
-        <v>18.3333</v>
-      </c>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="F59" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -5885,14 +6019,17 @@
         <v>1600</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>30000</v>
       </c>
-      <c r="E60" s="29" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="F60" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -5903,14 +6040,17 @@
         <v>1500</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>18</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>27000</v>
       </c>
-      <c r="E61" s="29" t="n">
-        <v>18</v>
-      </c>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="F61" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -5921,14 +6061,17 @@
         <v>1200</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>20.8333</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>25000</v>
       </c>
-      <c r="E62" s="29" t="n">
-        <v>20.8333</v>
-      </c>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="F62" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -5939,14 +6082,17 @@
         <v>1200</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>19.1667</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>23000</v>
       </c>
-      <c r="E63" s="29" t="n">
-        <v>19.1667</v>
-      </c>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="F63" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -5957,14 +6103,17 @@
         <v>1200</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>21000</v>
       </c>
-      <c r="E64" s="29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="F64" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -5975,14 +6124,17 @@
         <v>1200</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>16.6667</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>20000</v>
       </c>
-      <c r="E65" s="29" t="n">
-        <v>16.6667</v>
-      </c>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="F65" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -5993,14 +6145,17 @@
         <v>1100</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>17.2727</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>19000</v>
       </c>
-      <c r="E66" s="29" t="n">
-        <v>17.2727</v>
-      </c>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="F66" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -6011,14 +6166,17 @@
         <v>1100</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>17.2727</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>19000</v>
       </c>
-      <c r="E67" s="29" t="n">
-        <v>17.2727</v>
-      </c>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="F67" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -6029,14 +6187,17 @@
         <v>1000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>18</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>18000</v>
       </c>
-      <c r="E68" s="29" t="n">
-        <v>18</v>
-      </c>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="F68" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -6046,14 +6207,17 @@
         <v>1000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>16</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>16000</v>
       </c>
-      <c r="E69" s="29" t="n">
-        <v>16</v>
-      </c>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="F69" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -6063,14 +6227,17 @@
         <v>950</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>15.7895</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>15000</v>
       </c>
-      <c r="E70" s="29" t="n">
-        <v>15.7895</v>
-      </c>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="F70" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -6080,14 +6247,17 @@
         <v>950</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>15.7895</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>15000</v>
       </c>
-      <c r="E71" s="29" t="n">
-        <v>15.7895</v>
-      </c>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="F71" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -6097,14 +6267,17 @@
         <v>950</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>15.7895</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>15000</v>
       </c>
-      <c r="E72" s="29" t="n">
-        <v>15.7895</v>
-      </c>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="F72" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -6114,14 +6287,17 @@
         <v>950</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>15.7895</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>15000</v>
       </c>
-      <c r="E73" s="29" t="n">
-        <v>15.7895</v>
-      </c>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="F73" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -6131,14 +6307,17 @@
         <v>750</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>16</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>12000</v>
       </c>
-      <c r="E74" s="29" t="n">
-        <v>16</v>
-      </c>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="F74" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -6146,8 +6325,6 @@
       <c r="D75" s="29" t="n"/>
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -6155,8 +6332,6 @@
       <c r="D76" s="29" t="n"/>
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -6466,7 +6641,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6545,10 +6720,10 @@
         <v>30360</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>26.206</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>795614.97</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>26.206</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2465.01</v>
@@ -6567,10 +6742,10 @@
         <v>29580</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>20.6415</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>610576</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>20.6415</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>20116.06</v>
@@ -6589,10 +6764,10 @@
         <v>26979</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>25.3773</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>684653</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>25.3773</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>11751.28</v>
@@ -6611,10 +6786,10 @@
         <v>27863</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>24.9822</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>696080</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>24.9822</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>9989.629999999999</v>
@@ -6633,10 +6808,10 @@
         <v>24151</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>21.6553</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>522997</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>21.6553</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>4541</v>
@@ -6653,10 +6828,10 @@
         <v>31433</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>21.4139</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>673104</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>21.4139</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="inlineStr"/>
@@ -6671,10 +6846,10 @@
         <v>21995</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>23.3085</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>512670</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>23.3085</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="inlineStr"/>
@@ -6689,10 +6864,10 @@
         <v>22584</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>23.442</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>529413</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>23.442</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="inlineStr"/>
@@ -6707,10 +6882,10 @@
         <v>17142</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>23.3061</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>399515</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>23.3061</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2893.3</v>
@@ -6729,10 +6904,10 @@
         <v>6332</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>23.3993</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>148174</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>23.3993</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>8896.75</v>
@@ -6751,10 +6926,10 @@
         <v>14054</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>23.6026</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>331711</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>23.6026</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -6769,10 +6944,10 @@
         <v>12482</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>23.6712</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>295464.85</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>23.6712</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -6787,10 +6962,10 @@
         <v>12375</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>23.7398</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>293768</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>23.7398</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -6805,10 +6980,10 @@
         <v>11863</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>23.8083</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>282446</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>23.8083</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -6823,10 +6998,10 @@
         <v>11784</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>23.8769</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>281372.53</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>23.8769</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -6841,10 +7016,10 @@
         <v>11878</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>23.9454</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>284421.01</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>23.9454</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -6859,10 +7034,10 @@
         <v>11499</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>24.014</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>276141.74</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>24.014</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -6877,10 +7052,10 @@
         <v>11123</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>24.0826</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>267862.47</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>24.0826</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -6895,10 +7070,10 @@
         <v>10748</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>24.1511</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>259583.21</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>24.1511</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -6913,10 +7088,10 @@
         <v>10376</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>24.2197</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>251303.94</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>24.2197</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -6931,10 +7106,10 @@
         <v>10005</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>24.2898</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>243024.67</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>24.2898</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -6949,10 +7124,10 @@
         <v>9636</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>24.3614</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>234745.4</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>24.3614</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -6967,10 +7142,10 @@
         <v>9269</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>24.433</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>226466.14</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>24.433</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -6985,10 +7160,10 @@
         <v>8904</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>24.5047</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>218186.87</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>24.5047</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -7003,10 +7178,10 @@
         <v>8631</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>24.5763</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>212112.25</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>24.5763</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -7021,10 +7196,10 @@
         <v>8456</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>24.6479</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>208416.52</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>24.6479</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -7039,10 +7214,10 @@
         <v>8282</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>24.7196</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>204720.8</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>24.7196</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -7057,10 +7232,10 @@
         <v>8109</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>24.7912</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>201025.08</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>24.7912</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -7075,10 +7250,10 @@
         <v>7937</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>24.8628</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>197329.35</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>24.8628</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -7093,10 +7268,10 @@
         <v>7766</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>24.9345</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>193633.63</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>24.9345</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -7111,10 +7286,10 @@
         <v>7596</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>25.0061</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>189937.91</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>25.0061</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -7129,10 +7304,10 @@
         <v>7427</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>25.0777</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>186242.18</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>25.0777</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -7147,10 +7322,10 @@
         <v>7258</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>25.1494</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>182546.46</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>25.1494</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -7170,363 +7345,676 @@
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
+      <c r="B46" s="29" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
+      <c r="B47" s="29" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -7836,7 +8324,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -7915,10 +8403,10 @@
         <v>25597</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>22.4847</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>575550</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>22.4847</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.14</v>
@@ -7935,10 +8423,10 @@
         <v>24852</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>22.472</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>558480</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>22.472</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -7955,10 +8443,10 @@
         <v>23869</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>22.4432</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>535698</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>22.4432</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -7975,10 +8463,10 @@
         <v>26712</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>22.6865</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>605998</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>22.6865</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -7995,10 +8483,10 @@
         <v>26000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>22.7072</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>590387</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>22.7072</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -8015,10 +8503,10 @@
         <v>26000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>22.2629</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>578836</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>22.2629</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.14</v>
@@ -8035,10 +8523,10 @@
         <v>25000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>22.0289</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>550722</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>22.0289</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.25</v>
@@ -8055,10 +8543,10 @@
         <v>22000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>22.2195</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>488830</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>22.2195</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1.01</v>
@@ -8075,10 +8563,10 @@
         <v>21422</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>22.2126</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>475842.77</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>22.2126</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>0.13</v>
@@ -8095,10 +8583,10 @@
         <v>20218</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>22.2209</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>449270.48</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>22.2209</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="inlineStr"/>
@@ -8113,10 +8601,10 @@
         <v>19002</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>22.2223</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>422275.27</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>22.2223</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="n">
@@ -8133,10 +8621,10 @@
         <v>17775</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>22.2173</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>394911.12</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>22.2173</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="n">
@@ -8153,10 +8641,10 @@
         <v>16537</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>22.2066</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>367230.82</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>22.2066</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="n">
@@ -8173,10 +8661,10 @@
         <v>15291</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>22.1907</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>339309.29</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>22.1907</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="n">
@@ -8193,10 +8681,10 @@
         <v>14039</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>22.1703</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>311249.44</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>22.1703</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="n">
@@ -8213,10 +8701,10 @@
         <v>12787</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>22.1463</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>283178.11</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>22.1463</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="n">
@@ -8233,10 +8721,10 @@
         <v>11539</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>22.1193</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>255235.48</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>22.1193</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="n">
@@ -8253,10 +8741,10 @@
         <v>10664</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>22.099</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>235664.88</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>22.099</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="n">
@@ -8273,10 +8761,10 @@
         <v>9783</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>22.1559</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>216761.35</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>22.1559</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -8293,10 +8781,10 @@
         <v>10745</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>21.9814</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>236196.32</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>21.9814</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -8313,10 +8801,10 @@
         <v>9814</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>21.9607</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>215511.42</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>21.9607</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -8333,10 +8821,10 @@
         <v>8876</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>21.9356</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>194703.47</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>21.9356</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -8353,10 +8841,10 @@
         <v>7953</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>21.9105</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>174247.78</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>21.9105</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -8373,10 +8861,10 @@
         <v>7056</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>21.8884</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>154443.25</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>21.8884</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -8393,10 +8881,10 @@
         <v>6189</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>21.8708</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>135365.37</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>21.8708</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -8413,10 +8901,10 @@
         <v>5352</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>21.8588</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>116980.69</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>21.8588</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -8433,10 +8921,10 @@
         <v>4540</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>21.8529</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>99214.25</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>21.8529</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -8453,10 +8941,10 @@
         <v>3751</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>21.8537</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>81982.62</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>21.8537</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -8473,10 +8961,10 @@
         <v>2983</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>21.8619</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>65207.8</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>21.8619</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -8493,10 +8981,10 @@
         <v>2232</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>21.878</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>48821.91</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>21.878</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -8513,10 +9001,10 @@
         <v>1496</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>21.9026</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>32767.75</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>21.9026</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -8533,10 +9021,10 @@
         <v>550</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>21.8182</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>12000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>21.8182</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -8553,10 +9041,10 @@
         <v>520</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>22.1154</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>11500</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>22.1154</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -8573,10 +9061,10 @@
         <v>10000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>11000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1.1</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -8593,10 +9081,10 @@
         <v>9000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1.1111</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>10000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1.1111</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -8613,10 +9101,10 @@
         <v>9000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1.1111</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>10000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1.1111</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -8633,10 +9121,10 @@
         <v>8000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>9000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1.125</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -8653,10 +9141,10 @@
         <v>8000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>9000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1.125</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -8673,10 +9161,10 @@
         <v>7000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1.1429</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>8000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1.1429</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -8693,10 +9181,10 @@
         <v>7000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1.1429</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>8000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1.1429</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -8713,10 +9201,10 @@
         <v>6000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1.1667</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>7000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1.1667</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -8733,10 +9221,10 @@
         <v>6000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1.1667</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>7000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1.1667</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -8753,10 +9241,10 @@
         <v>5000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>6000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1.2</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -8773,10 +9261,10 @@
         <v>5000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>6000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1.2</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -8793,10 +9281,10 @@
         <v>4000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>5000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1.25</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -8813,10 +9301,10 @@
         <v>4000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>5000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1.25</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -8833,10 +9321,10 @@
         <v>3000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1.3333</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>4000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1.3333</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -8853,10 +9341,10 @@
         <v>3000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>3000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -8873,10 +9361,10 @@
         <v>3000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>3000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -8893,10 +9381,10 @@
         <v>3000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1.3333</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>4000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1.3333</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -8913,10 +9401,10 @@
         <v>3000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1.3333</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>4000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1.3333</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -8933,10 +9421,10 @@
         <v>3000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1.3333</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>4000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1.3333</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -8953,10 +9441,10 @@
         <v>3000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1.3333</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>4000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1.3333</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -8973,10 +9461,10 @@
         <v>3000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1.3333</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>4000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1.3333</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -8993,10 +9481,10 @@
         <v>3000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1.3333</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>4000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1.3333</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -9013,10 +9501,10 @@
         <v>3000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>3000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -9033,10 +9521,10 @@
         <v>3000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>3000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -9052,10 +9540,10 @@
         <v>3000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>3000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -9071,10 +9559,10 @@
         <v>2000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>2000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -9090,10 +9578,10 @@
         <v>2000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>2000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -9109,10 +9597,10 @@
         <v>2000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>2000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -9128,10 +9616,10 @@
         <v>2000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>2000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -9147,10 +9635,10 @@
         <v>2000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>2000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -9484,7 +9972,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -9563,16 +10051,17 @@
         <v>23986</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>21.0427</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>504722.8</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>21.0427</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>917.34</v>
       </c>
-      <c r="G12" s="29" t="inlineStr"/>
-      <c r="H12" s="29" t="n"/>
+      <c r="G12" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -9583,16 +10072,17 @@
         <v>23700</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>20.962</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>496800</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>20.962</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>770.89</v>
       </c>
-      <c r="G13" s="29" t="inlineStr"/>
-      <c r="H13" s="29" t="n"/>
+      <c r="G13" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -9603,16 +10093,17 @@
         <v>23700</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>20.9578</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>496700</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>20.9578</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>660.48</v>
       </c>
-      <c r="G14" s="29" t="inlineStr"/>
-      <c r="H14" s="29" t="n"/>
+      <c r="G14" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -9623,16 +10114,17 @@
         <v>24000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>20.7542</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>498100</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>20.7542</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>491.17</v>
       </c>
-      <c r="G15" s="29" t="inlineStr"/>
-      <c r="H15" s="29" t="n"/>
+      <c r="G15" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -9643,16 +10135,17 @@
         <v>24400</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>21.459</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>523600</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>21.459</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>513.5700000000001</v>
       </c>
-      <c r="G16" s="29" t="inlineStr"/>
-      <c r="H16" s="29" t="n"/>
+      <c r="G16" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -9663,16 +10156,17 @@
         <v>24400</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>20.959</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>511400</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>20.959</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>483.42</v>
       </c>
-      <c r="G17" s="29" t="inlineStr"/>
-      <c r="H17" s="29" t="n"/>
+      <c r="G17" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -9683,16 +10177,17 @@
         <v>24700</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>20.9879</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>518400</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>20.9879</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>458.7</v>
       </c>
-      <c r="G18" s="29" t="inlineStr"/>
-      <c r="H18" s="29" t="n"/>
+      <c r="G18" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -9703,16 +10198,17 @@
         <v>24700</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>21.332</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>526900</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>21.332</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>477.75</v>
       </c>
-      <c r="G19" s="29" t="inlineStr"/>
-      <c r="H19" s="29" t="n"/>
+      <c r="G19" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -9723,16 +10219,17 @@
         <v>25000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>536000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>21.44</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>428.26</v>
       </c>
-      <c r="G20" s="29" t="inlineStr"/>
-      <c r="H20" s="29" t="n"/>
+      <c r="G20" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -9743,16 +10240,17 @@
         <v>25100</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>21.7251</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>545300</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>21.7251</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>446.13</v>
       </c>
-      <c r="G21" s="29" t="inlineStr"/>
-      <c r="H21" s="29" t="n"/>
+      <c r="G21" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -9763,16 +10261,17 @@
         <v>25100</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>21.5697</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>541400</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>21.5697</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>437</v>
       </c>
-      <c r="G22" s="29" t="inlineStr"/>
-      <c r="H22" s="29" t="n"/>
+      <c r="G22" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -9783,16 +10282,17 @@
         <v>25300</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>21.5059</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>544100</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>21.5059</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>417</v>
       </c>
-      <c r="G23" s="29" t="inlineStr"/>
-      <c r="H23" s="29" t="n"/>
+      <c r="G23" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -9803,16 +10303,17 @@
         <v>25340</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>21.6851</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>549500</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>21.6851</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>377</v>
       </c>
-      <c r="G24" s="29" t="inlineStr"/>
-      <c r="H24" s="29" t="n"/>
+      <c r="G24" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -9823,16 +10324,17 @@
         <v>25340</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>21.3615</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>541300</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>21.3615</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>437</v>
       </c>
-      <c r="G25" s="29" t="inlineStr"/>
-      <c r="H25" s="29" t="n"/>
+      <c r="G25" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -9843,16 +10345,17 @@
         <v>25360</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>22.6774</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>575100</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>22.6774</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>401</v>
       </c>
-      <c r="G26" s="29" t="inlineStr"/>
-      <c r="H26" s="29" t="n"/>
+      <c r="G26" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -9863,16 +10366,17 @@
         <v>24100</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>23.8797</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>575500</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>23.8797</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>484</v>
       </c>
-      <c r="G27" s="29" t="inlineStr"/>
-      <c r="H27" s="29" t="n"/>
+      <c r="G27" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -9883,16 +10387,17 @@
         <v>24300</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>22.9918</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>558700</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>22.9918</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>472</v>
       </c>
-      <c r="G28" s="29" t="inlineStr"/>
-      <c r="H28" s="29" t="n"/>
+      <c r="G28" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -9903,16 +10408,17 @@
         <v>24900</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>22.2731</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>554600</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>22.2731</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>502</v>
       </c>
-      <c r="G29" s="29" t="inlineStr"/>
-      <c r="H29" s="29" t="n"/>
+      <c r="G29" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -9923,16 +10429,17 @@
         <v>25270</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>21.9232</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>554000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>21.9232</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>486</v>
       </c>
-      <c r="G30" s="29" t="inlineStr"/>
-      <c r="H30" s="29" t="n"/>
+      <c r="G30" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -9943,16 +10450,17 @@
         <v>25680</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>21.3045</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>547100</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>21.3045</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>470</v>
       </c>
-      <c r="G31" s="29" t="inlineStr"/>
-      <c r="H31" s="29" t="n"/>
+      <c r="G31" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -9963,16 +10471,17 @@
         <v>25610</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>22.5185</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>576700</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>22.5185</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>463</v>
       </c>
-      <c r="G32" s="29" t="inlineStr"/>
-      <c r="H32" s="29" t="n"/>
+      <c r="G32" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -9983,16 +10492,17 @@
         <v>23900</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>21.7029</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>518700</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>21.7029</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>544</v>
       </c>
-      <c r="G33" s="29" t="inlineStr"/>
-      <c r="H33" s="29" t="n"/>
+      <c r="G33" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -10003,16 +10513,17 @@
         <v>24400</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>21.5902</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>526800</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>21.5902</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>552</v>
       </c>
-      <c r="G34" s="29" t="inlineStr"/>
-      <c r="H34" s="29" t="n"/>
+      <c r="G34" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -10023,16 +10534,17 @@
         <v>25100</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>21.3825</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>536700</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>21.3825</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>3972.42</v>
       </c>
-      <c r="G35" s="29" t="inlineStr"/>
-      <c r="H35" s="29" t="n"/>
+      <c r="G35" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -10043,16 +10555,17 @@
         <v>25300</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>21.0435</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>532400</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>21.0435</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>2460</v>
       </c>
-      <c r="G36" s="29" t="inlineStr"/>
-      <c r="H36" s="29" t="n"/>
+      <c r="G36" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -10063,16 +10576,17 @@
         <v>25000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>508500</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>20.34</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>955</v>
       </c>
-      <c r="G37" s="29" t="inlineStr"/>
-      <c r="H37" s="29" t="n"/>
+      <c r="G37" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -10083,16 +10597,17 @@
         <v>25000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>21.972</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>549300</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>21.972</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>376</v>
       </c>
-      <c r="G38" s="29" t="inlineStr"/>
-      <c r="H38" s="29" t="n"/>
+      <c r="G38" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -10103,16 +10618,17 @@
         <v>25000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>21.824</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>545600</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>21.824</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>380</v>
       </c>
-      <c r="G39" s="29" t="inlineStr"/>
-      <c r="H39" s="29" t="n"/>
+      <c r="G39" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -10123,16 +10639,17 @@
         <v>25000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>21.344</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>533600</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>21.344</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>333</v>
       </c>
-      <c r="G40" s="29" t="inlineStr"/>
-      <c r="H40" s="29" t="n"/>
+      <c r="G40" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -10143,16 +10660,17 @@
         <v>24400</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>524600</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>21.5</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>338</v>
       </c>
-      <c r="G41" s="29" t="inlineStr"/>
-      <c r="H41" s="29" t="n"/>
+      <c r="G41" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -10163,16 +10681,17 @@
         <v>24100</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>20.9793</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>505600</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>20.9793</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>350</v>
       </c>
-      <c r="G42" s="29" t="inlineStr"/>
-      <c r="H42" s="29" t="n"/>
+      <c r="G42" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -10183,16 +10702,17 @@
         <v>24500</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>18.9796</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>465000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>18.9796</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>304</v>
       </c>
-      <c r="G43" s="29" t="inlineStr"/>
-      <c r="H43" s="29" t="n"/>
+      <c r="G43" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -10203,16 +10723,17 @@
         <v>24200</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>21.3512</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>516700</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>21.3512</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>312</v>
       </c>
-      <c r="G44" s="29" t="inlineStr"/>
-      <c r="H44" s="29" t="n"/>
+      <c r="G44" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -10223,16 +10744,17 @@
         <v>24100</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>23.1411</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>557700</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>23.1411</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>236</v>
       </c>
-      <c r="G45" s="29" t="inlineStr"/>
-      <c r="H45" s="29" t="n"/>
+      <c r="G45" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -10243,16 +10765,17 @@
         <v>24000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>22.5792</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>541900</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>22.5792</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>226</v>
       </c>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="G46" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -10263,16 +10786,17 @@
         <v>23900</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>21.8577</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>522400</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>21.8577</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>187</v>
       </c>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="G47" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -10283,16 +10807,17 @@
         <v>24000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>23.4792</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>563500</v>
       </c>
-      <c r="E48" s="29" t="n">
-        <v>23.4792</v>
-      </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="G48" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -10303,16 +10828,17 @@
         <v>24200</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>23.6777</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>573000</v>
       </c>
-      <c r="E49" s="29" t="n">
-        <v>23.6777</v>
-      </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="G49" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -10323,16 +10849,17 @@
         <v>24000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>23.025</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>552600</v>
       </c>
-      <c r="E50" s="29" t="n">
-        <v>23.025</v>
-      </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="G50" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -10343,16 +10870,17 @@
         <v>24100</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>23.3444</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>562600</v>
       </c>
-      <c r="E51" s="29" t="n">
-        <v>23.3444</v>
-      </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="G51" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -10363,16 +10891,17 @@
         <v>24000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>22.8542</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>548500</v>
       </c>
-      <c r="E52" s="29" t="n">
-        <v>22.8542</v>
-      </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="G52" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -10383,16 +10912,17 @@
         <v>23700</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>21.9747</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>520800</v>
       </c>
-      <c r="E53" s="29" t="n">
-        <v>21.9747</v>
-      </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="G53" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -10403,16 +10933,17 @@
         <v>24100</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>23.5809</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>568300</v>
       </c>
-      <c r="E54" s="29" t="n">
-        <v>23.5809</v>
-      </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="G54" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -10423,16 +10954,17 @@
         <v>23800</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>22.6429</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>538900</v>
       </c>
-      <c r="E55" s="29" t="n">
-        <v>22.6429</v>
-      </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="G55" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -10443,16 +10975,17 @@
         <v>24000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>549600</v>
       </c>
-      <c r="E56" s="29" t="n">
-        <v>22.9</v>
-      </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="G56" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -10463,16 +10996,17 @@
         <v>24200</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>23.3264</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>564500</v>
       </c>
-      <c r="E57" s="29" t="n">
-        <v>23.3264</v>
-      </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="G57" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -10483,16 +11017,17 @@
         <v>24000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>23.0875</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>554100</v>
       </c>
-      <c r="E58" s="29" t="n">
-        <v>23.0875</v>
-      </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="G58" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -10503,16 +11038,17 @@
         <v>23900</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>22.4728</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>537100</v>
       </c>
-      <c r="E59" s="29" t="n">
-        <v>22.4728</v>
-      </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="G59" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -10523,16 +11059,17 @@
         <v>24400</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>22.7295</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>554600</v>
       </c>
-      <c r="E60" s="29" t="n">
-        <v>22.7295</v>
-      </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="G60" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -10543,16 +11080,17 @@
         <v>24500</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>22.6327</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>554500</v>
       </c>
-      <c r="E61" s="29" t="n">
-        <v>22.6327</v>
-      </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="G61" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -10563,16 +11101,17 @@
         <v>25300</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>22.3834</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>566300</v>
       </c>
-      <c r="E62" s="29" t="n">
-        <v>22.3834</v>
-      </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="G62" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -10583,16 +11122,17 @@
         <v>26600</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>22.6767</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>603200</v>
       </c>
-      <c r="E63" s="29" t="n">
-        <v>22.6767</v>
-      </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="G63" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -10603,16 +11143,17 @@
         <v>27300</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>22.3846</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>611100</v>
       </c>
-      <c r="E64" s="29" t="n">
-        <v>22.3846</v>
-      </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="G64" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -10623,16 +11164,17 @@
         <v>27800</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>22.0827</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>613900</v>
       </c>
-      <c r="E65" s="29" t="n">
-        <v>22.0827</v>
-      </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="G65" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -10643,16 +11185,17 @@
         <v>28000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>22.0786</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>618200</v>
       </c>
-      <c r="E66" s="29" t="n">
-        <v>22.0786</v>
-      </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="G66" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -10663,16 +11206,17 @@
         <v>29000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>22.0172</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>638500</v>
       </c>
-      <c r="E67" s="29" t="n">
-        <v>22.0172</v>
-      </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="G67" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -10683,16 +11227,17 @@
         <v>28800</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>20.9583</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>603600</v>
       </c>
-      <c r="E68" s="29" t="n">
-        <v>20.9583</v>
-      </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="G68" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -10702,16 +11247,17 @@
         <v>29400</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>20.1803</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>593300</v>
       </c>
-      <c r="E69" s="29" t="n">
-        <v>20.1803</v>
-      </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="G69" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -10721,16 +11267,17 @@
         <v>29500</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>19.2644</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>568300</v>
       </c>
-      <c r="E70" s="29" t="n">
-        <v>19.2644</v>
-      </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="G70" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -10740,16 +11287,17 @@
         <v>29000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>18.5207</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>537100</v>
       </c>
-      <c r="E71" s="29" t="n">
-        <v>18.5207</v>
-      </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="G71" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -10759,16 +11307,17 @@
         <v>28800</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>19.3333</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>556800</v>
       </c>
-      <c r="E72" s="29" t="n">
-        <v>19.3333</v>
-      </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="G72" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -10778,16 +11327,17 @@
         <v>27600</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>18.1522</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>501000</v>
       </c>
-      <c r="E73" s="29" t="n">
-        <v>18.1522</v>
-      </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="G73" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -10797,16 +11347,17 @@
         <v>26100</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>15.7088</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>410000</v>
       </c>
-      <c r="E74" s="29" t="n">
-        <v>15.7088</v>
-      </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="G74" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -10815,7 +11366,6 @@
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
       <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -10824,7 +11374,6 @@
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
       <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -11134,7 +11683,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11213,10 +11762,10 @@
         <v>16192</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>27.098</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>438782.76</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>27.098</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>109.7</v>
@@ -11235,10 +11784,10 @@
         <v>16377</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>27.394</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>448632</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>27.394</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="inlineStr"/>
@@ -11253,10 +11802,10 @@
         <v>18202</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>27.0938</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>493162</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>27.0938</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="inlineStr"/>
@@ -11271,10 +11820,10 @@
         <v>15632</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>26.7324</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>417881</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>26.7324</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="inlineStr"/>
@@ -11289,10 +11838,10 @@
         <v>17170</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>27.0076</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>463721</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>27.0076</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="inlineStr"/>
@@ -11307,10 +11856,10 @@
         <v>18757</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>26.1163</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>489864</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>26.1163</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="inlineStr"/>
@@ -11325,10 +11874,10 @@
         <v>18078</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>26.8346</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>485116</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>26.8346</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="inlineStr"/>
@@ -11343,10 +11892,10 @@
         <v>15204</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>26.9573</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>409859</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>26.9573</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="inlineStr"/>
@@ -11361,10 +11910,10 @@
         <v>14912</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>26.8105</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>399798</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>26.8105</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="inlineStr"/>
@@ -11379,10 +11928,10 @@
         <v>16347</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>28.3046</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>462695</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>28.3046</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="inlineStr"/>
@@ -11397,10 +11946,10 @@
         <v>16336</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>26.3577</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>430580</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>26.3577</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -11419,10 +11968,10 @@
         <v>14872</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>23.987</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>356734</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>23.987</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -11441,10 +11990,10 @@
         <v>19666</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>24.5166</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>482143</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>24.5166</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -11463,10 +12012,10 @@
         <v>16317</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>25.5702</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>417229</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>25.5702</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -11485,10 +12034,10 @@
         <v>16997</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>26.2982</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>446991</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>26.2982</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -11507,10 +12056,10 @@
         <v>18749</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>26.9378</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>505056</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>26.9378</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -11529,10 +12078,10 @@
         <v>18157</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>26.9215</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>488814</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>26.9215</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -11551,10 +12100,10 @@
         <v>20227</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>26.8444</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>542981</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>26.8444</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2979</v>
@@ -11573,10 +12122,10 @@
         <v>20337</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>25.2335</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>513174</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>25.2335</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -11595,10 +12144,10 @@
         <v>25743</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>27.1997</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>700201</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>27.1997</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>2572</v>
@@ -11617,10 +12166,10 @@
         <v>20039</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>26.6931</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>534903</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>26.6931</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2963</v>
@@ -11639,10 +12188,10 @@
         <v>21590</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>26.2542</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>566828</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>26.2542</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>58</v>
@@ -11661,10 +12210,10 @@
         <v>23987</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>26.5024</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>635713</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>26.5024</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>48</v>
@@ -11683,10 +12232,10 @@
         <v>24316</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>27.0555</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>657881</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>27.0555</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>56.7</v>
@@ -11705,10 +12254,10 @@
         <v>23178</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>26.1696</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>606559</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>26.1696</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -11727,10 +12276,10 @@
         <v>19831</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>25.2379</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>500492</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>25.2379</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>250</v>
@@ -11749,10 +12298,10 @@
         <v>19276</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>25.1374</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>484548</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>25.1374</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>4</v>
@@ -11771,10 +12320,10 @@
         <v>20845</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>25.0723</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>522633</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>25.0723</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -11793,10 +12342,10 @@
         <v>23010</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>24.0401</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>553163</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>24.0401</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>19</v>
@@ -11815,10 +12364,10 @@
         <v>20521</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>24.2259</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>497140</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>24.2259</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>581</v>
@@ -11837,10 +12386,10 @@
         <v>21318</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>26.0334</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>554979</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>26.0334</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>2</v>
@@ -11859,10 +12408,10 @@
         <v>24461</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>24.6454</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>602851</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>24.6454</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>2</v>
@@ -11881,10 +12430,10 @@
         <v>20832</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>25.6604</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>534558</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>25.6604</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>5014</v>
@@ -11903,10 +12452,10 @@
         <v>18548</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>25.0976</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>465510</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>25.0976</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -11925,10 +12474,10 @@
         <v>21743</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>25.2386</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>548762</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>25.2386</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -11947,10 +12496,10 @@
         <v>21238</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>25.4295</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>540071</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>25.4295</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>21</v>
@@ -11969,10 +12518,10 @@
         <v>19868</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>25.067</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>498031</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>25.067</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -11991,10 +12540,10 @@
         <v>24248</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>25.2646</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>612617</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>25.2646</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -12013,10 +12562,10 @@
         <v>21268</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>24.6378</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>523997</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>24.6378</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>9309</v>
@@ -12035,10 +12584,10 @@
         <v>18898</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>22.8608</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>432023</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>22.8608</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>10293</v>
@@ -12057,10 +12606,10 @@
         <v>16300</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>24.3532</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>396957</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>24.3532</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -12079,10 +12628,10 @@
         <v>19302</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>24.2322</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>467729</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>24.2322</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -12101,10 +12650,10 @@
         <v>16756</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>24.3083</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>407310</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>24.3083</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -12123,10 +12672,10 @@
         <v>16546</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>27.4911</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>454867</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>27.4911</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -12145,10 +12694,10 @@
         <v>15725</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>31.8363</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>500626</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>31.8363</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>15034</v>
@@ -12167,10 +12716,10 @@
         <v>14020</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>14.4804</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>203015</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>14.4804</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>8058</v>
@@ -12189,10 +12738,10 @@
         <v>13978</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>14.7619</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>206342</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>14.7619</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -12211,10 +12760,10 @@
         <v>11309</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>8.590299999999999</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>97148</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>8.590299999999999</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -12233,10 +12782,10 @@
         <v>8906</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>12.9496</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>115329</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>12.9496</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -12255,10 +12804,10 @@
         <v>6443</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>11.7189</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>75505</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>11.7189</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -12277,10 +12826,10 @@
         <v>6055</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>11.9438</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>72320</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>11.9438</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -12299,10 +12848,10 @@
         <v>5890</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>12.0986</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>71261</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>12.0986</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -12321,10 +12870,10 @@
         <v>5853</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>12.3069</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>72032</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>12.3069</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -12343,10 +12892,10 @@
         <v>6058</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>11.566</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>70067</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>11.566</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -12365,10 +12914,10 @@
         <v>5655</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>10.206</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>57715</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>10.206</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -12387,10 +12936,10 @@
         <v>3975</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>10.324</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>41038</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>10.324</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -12409,10 +12958,10 @@
         <v>4278</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>9.7585</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>41747</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>9.7585</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -12430,10 +12979,10 @@
         <v>3677</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>12.9611</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>47658</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>12.9611</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -12451,10 +13000,10 @@
         <v>3517</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>10.066</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>35402</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>10.066</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -12472,10 +13021,10 @@
         <v>3591</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>9.345000000000001</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>33558</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>9.345000000000001</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -12493,10 +13042,10 @@
         <v>2326</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>9.533100000000001</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>22174</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>9.533100000000001</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -12514,10 +13063,10 @@
         <v>2151</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>10.1576</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>21849</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>10.1576</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -12535,10 +13084,10 @@
         <v>1634</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>10.1909</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>16652</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>10.1909</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>

--- a/Resultados/Mercado mundial - Cebollas, chalotes, verdes.xlsx
+++ b/Resultados/Mercado mundial - Cebollas, chalotes, verdes.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Malí" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Angola" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Japón" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="República de Corea" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Mali" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Angola" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Japan" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Republic of Korea" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,8 +301,9 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -406,13 +407,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +433,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +489,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +515,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$23</f>
+              <f>'Países productores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$23</f>
+              <f>'Países productores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -570,13 +571,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +597,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +653,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,10 +679,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -734,13 +735,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +761,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +817,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +843,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Malí'!$B$12:$B$74</f>
+              <f>'Mali'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Malí'!$C$12:$C$74</f>
+              <f>'Mali'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +899,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,10 +925,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -980,13 +981,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1007,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Japón'!$B$12:$B$74</f>
+              <f>'Japan'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Japón'!$C$12:$C$74</f>
+              <f>'Japan'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1063,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1089,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'República de Corea'!$B$12:$B$74</f>
+              <f>'Republic of Korea'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'República de Corea'!$C$12:$C$74</f>
+              <f>'Republic of Korea'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1145,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1163,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1203,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1215,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1233,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1273,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1285,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1303,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1343,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1355,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1373,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1413,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1425,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1440,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1462,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1477,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1492,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1514,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1529,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1544,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1566,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1581,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1596,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1618,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1633,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1648,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1670,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2011,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2060,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2139,10 @@
         <v>224593</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>5068323.93</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>22.5667</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>5068323.93</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>568670.8</v>
@@ -2160,10 +2161,10 @@
         <v>226167</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>4889848.65</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>21.6205</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>4889848.65</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>623844.8</v>
@@ -2182,10 +2183,10 @@
         <v>228487</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>5097526.56</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>22.3099</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>5097526.56</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>590011.75</v>
@@ -2204,10 +2205,10 @@
         <v>226747</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>5058417.05</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>22.3087</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>5058417.05</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>649657.16</v>
@@ -2226,10 +2227,10 @@
         <v>228131</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>4895688.54</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>21.46</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>4895688.54</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>788657</v>
@@ -2248,10 +2249,10 @@
         <v>238269</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>5103141.36</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>21.4175</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>5103141.36</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>457612.9</v>
@@ -2270,10 +2271,10 @@
         <v>241975</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>5192060.88</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>21.457</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>5192060.88</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>404982.14</v>
@@ -2292,10 +2293,10 @@
         <v>231998</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>5044563.03</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>21.744</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>5044563.03</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>537609.38</v>
@@ -2314,10 +2315,10 @@
         <v>224015</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>4910968.12</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>21.9225</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>4910968.12</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>581965.6</v>
@@ -2336,10 +2337,10 @@
         <v>222525</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>4782919.3</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>21.4939</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>4782919.3</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>472320.96</v>
@@ -2358,10 +2359,10 @@
         <v>235929</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>4971597.37</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>21.0725</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>4971597.37</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>569067</v>
@@ -2380,10 +2381,10 @@
         <v>238274</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>4901081.15</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>20.5691</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>4901081.15</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>487432</v>
@@ -2402,10 +2403,10 @@
         <v>240078</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>4938114.94</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>20.5688</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>4938114.94</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>526662</v>
@@ -2424,10 +2425,10 @@
         <v>233126</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>4711670.2</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>20.2109</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>4711670.2</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>496249</v>
@@ -2446,10 +2447,10 @@
         <v>235134</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>4752801.29</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>20.2131</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>4752801.29</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>414679</v>
@@ -2468,10 +2469,10 @@
         <v>233468</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>4716410.36</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>20.2016</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>4716410.36</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>477743</v>
@@ -2490,10 +2491,10 @@
         <v>230537</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>4528855.56</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>19.6448</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>4528855.56</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>417665</v>
@@ -2512,10 +2513,10 @@
         <v>229615</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>4580416.28</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>19.9482</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>4580416.28</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>409846</v>
@@ -2534,10 +2535,10 @@
         <v>224374</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>4204383.5</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>18.7383</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>4204383.5</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>433094</v>
@@ -2556,10 +2557,10 @@
         <v>226945</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>4439112.31</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>19.5603</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>4439112.31</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>381140</v>
@@ -2578,10 +2579,10 @@
         <v>213988</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>4130038.61</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>19.3003</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>4130038.61</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>339347</v>
@@ -2600,10 +2601,10 @@
         <v>215229</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>4055732.05</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>18.8438</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>4055732.05</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>256153</v>
@@ -2622,10 +2623,10 @@
         <v>215824</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>3964500.23</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>18.3692</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>3964500.23</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>261888.5</v>
@@ -2644,10 +2645,10 @@
         <v>189382</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>3673944.04</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>19.3996</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>3673944.04</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>267846.3</v>
@@ -2666,10 +2667,10 @@
         <v>179578</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>3413233.45</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>19.007</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>3413233.45</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>400610.67</v>
@@ -2688,10 +2689,10 @@
         <v>180894</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>3215995.73</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>17.7784</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>3215995.73</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>453888.15</v>
@@ -2710,10 +2711,10 @@
         <v>184840</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>3302685.47</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>17.8678</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>3302685.47</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>408893.64</v>
@@ -2732,10 +2733,10 @@
         <v>173845</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>3288769.45</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>18.9179</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>3288769.45</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>333684</v>
@@ -2754,10 +2755,10 @@
         <v>172435</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3263875.53</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>18.9281</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3263875.53</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>242914</v>
@@ -2776,10 +2777,10 @@
         <v>165082</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>3149095.83</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>19.0759</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>3149095.83</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>220051</v>
@@ -2798,10 +2799,10 @@
         <v>161257</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>2899547.6</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>17.9809</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>2899547.6</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>186734</v>
@@ -2820,10 +2821,10 @@
         <v>162670</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2826619.67</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>17.3764</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2826619.67</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>183747</v>
@@ -2842,10 +2843,10 @@
         <v>165340</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2783693.06</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>16.8362</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2783693.06</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>174272</v>
@@ -2864,10 +2865,10 @@
         <v>162870</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2509379</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>15.4073</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2509379</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>123620</v>
@@ -2886,10 +2887,10 @@
         <v>155007</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2415114</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>15.5807</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2415114</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>88106</v>
@@ -2908,10 +2909,10 @@
         <v>155469</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>2401073</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>15.4441</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>2401073</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>82162</v>
@@ -2930,10 +2931,10 @@
         <v>151290</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2297031</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>15.183</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2297031</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>165442</v>
@@ -2952,10 +2953,10 @@
         <v>158102</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2442173</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>15.4468</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2442173</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>174965</v>
@@ -2974,10 +2975,10 @@
         <v>150616</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2299935</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>15.2702</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2299935</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>165506</v>
@@ -2996,10 +2997,10 @@
         <v>143463</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>2195105</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>15.3008</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>2195105</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>116249</v>
@@ -3018,10 +3019,10 @@
         <v>139102</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1990417</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>14.309</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1990417</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>123767</v>
@@ -3040,10 +3041,10 @@
         <v>143029</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>2062050</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>14.417</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>2062050</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>122664</v>
@@ -3062,10 +3063,10 @@
         <v>135510</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1967041</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>14.5158</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1967041</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>122759</v>
@@ -3084,10 +3085,10 @@
         <v>125642</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1924840</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>15.32</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1924840</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>73803</v>
@@ -3106,10 +3107,10 @@
         <v>120669</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1924511</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>15.9487</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1924511</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>76216</v>
@@ -3128,10 +3129,10 @@
         <v>115109</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1612411</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>14.0077</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1612411</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>99376</v>
@@ -3150,10 +3151,10 @@
         <v>114301</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1590609</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>13.916</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1590609</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>87656</v>
@@ -3172,10 +3173,10 @@
         <v>107212</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1400468</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>13.0626</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1400468</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>83503</v>
@@ -3194,10 +3195,10 @@
         <v>104227</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1402561</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>13.4568</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1402561</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>54006</v>
@@ -3216,10 +3217,10 @@
         <v>97765</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1296882</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>13.2653</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1296882</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>72699</v>
@@ -3238,10 +3239,10 @@
         <v>98457</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1272482</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>12.9242</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1272482</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>64935</v>
@@ -3260,10 +3261,10 @@
         <v>100152</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1331958</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>13.2994</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1331958</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>60062</v>
@@ -3282,10 +3283,10 @@
         <v>99236</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1339097</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>13.4941</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1339097</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>60640</v>
@@ -3304,10 +3305,10 @@
         <v>103783</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1329878</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>12.814</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1329878</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>44170</v>
@@ -3326,10 +3327,10 @@
         <v>112284</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1337426</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>11.9111</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1337426</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>66491</v>
@@ -3348,10 +3349,10 @@
         <v>98058</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1259796</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>12.8475</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1259796</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>57081</v>
@@ -3370,10 +3371,10 @@
         <v>94072</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1222975</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>13.0004</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1222975</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>24026</v>
@@ -3391,10 +3392,10 @@
         <v>91465</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1201791</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>13.1394</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1201791</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>30399</v>
@@ -3412,10 +3413,10 @@
         <v>90407</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1170266</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>12.9444</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1170266</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>77245</v>
@@ -3433,10 +3434,10 @@
         <v>90089</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1164370</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>12.9247</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1164370</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>110289</v>
@@ -3454,10 +3455,10 @@
         <v>87803</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1061018</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>12.0841</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1061018</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>47597</v>
@@ -3475,10 +3476,10 @@
         <v>83296</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>981411</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>11.7822</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>981411</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>28494</v>
@@ -3496,10 +3497,10 @@
         <v>80212</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>871594</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>10.8661</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>871594</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>28293</v>
@@ -3786,8 +3787,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3883,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3896,7 +3897,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Malí</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3924,7 +3925,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Japón</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3939,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>República de Corea</t>
+          <t>Republic of Korea</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3952,7 +3953,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Túnez</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3980,7 +3981,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Nueva Zelandia</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3995,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Tailandia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4022,35 +4023,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>842144.5999999996</v>
+        <v>98629.17</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.1661584010081218</v>
+        <v>0.01945991837976307</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>743515.4299999997</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.1466984826283587</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>5068323.93</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4061,40 +4070,41 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="12" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="33" t="n"/>
+      <c r="C28" s="35" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="33" t="n"/>
+      <c r="C29" s="35" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="33" t="n"/>
+      <c r="C30" s="35" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="33" t="n"/>
+      <c r="C31" s="35" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="33" t="n"/>
+      <c r="C32" s="35" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="33" t="n"/>
+      <c r="C33" s="35" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="33" t="n"/>
+      <c r="C34" s="35" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4116,7 +4126,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4225,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Nueva Zelandia</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4229,7 +4239,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Tayikistán</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4253,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4267,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4271,7 +4281,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Marruecos</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4299,7 +4309,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4341,7 +4351,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4398,124 +4408,124 @@
     <row r="26">
       <c r="B26" s="13" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="35" t="n"/>
+      <c r="D26" s="36" t="n"/>
       <c r="E26" s="25" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="35" t="n"/>
+      <c r="D27" s="36" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="35" t="n"/>
+      <c r="D28" s="36" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="35" t="n"/>
+      <c r="D29" s="36" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="35" t="n"/>
+      <c r="D30" s="36" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="35" t="n"/>
+      <c r="D31" s="36" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="35" t="n"/>
+      <c r="D32" s="36" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="35" t="n"/>
+      <c r="D33" s="36" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="35" t="n"/>
+      <c r="D34" s="36" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="35" t="n"/>
+      <c r="D35" s="36" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="35" t="n"/>
+      <c r="D36" s="36" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="36" t="n"/>
+      <c r="D37" s="37" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="36" t="n"/>
+      <c r="D38" s="37" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="36" t="n"/>
+      <c r="D39" s="37" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="36" t="n"/>
+      <c r="D40" s="37" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="36" t="n"/>
+      <c r="D41" s="37" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="36" t="n"/>
+      <c r="D42" s="37" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="36" t="n"/>
+      <c r="D43" s="37" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="36" t="n"/>
+      <c r="D44" s="37" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="36" t="n"/>
+      <c r="D45" s="37" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4537,8 +4547,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4647,7 +4657,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4703,7 +4713,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4731,7 +4741,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4755,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Trinidad y Tabago</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4769,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4812,58 +4822,58 @@
     </row>
     <row r="26">
       <c r="B26" s="15" t="n"/>
-      <c r="C26" s="37" t="n"/>
+      <c r="C26" s="38" t="n"/>
       <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="38" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="38" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="38" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="38" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="38" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="38" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="38" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="38" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="C35" s="38" t="n"/>
+      <c r="D35" s="37" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="C36" s="38" t="n"/>
+      <c r="D36" s="37" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4932,7 +4942,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,17 +5021,14 @@
         <v>22505</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>872231.23</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>38.7573</v>
       </c>
-      <c r="E12" s="29" t="n">
-        <v>872231.23</v>
-      </c>
-      <c r="F12" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
+      <c r="F12" s="29" t="inlineStr"/>
+      <c r="G12" s="29" t="inlineStr"/>
+      <c r="H12" s="29" t="n"/>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -5032,17 +5039,14 @@
         <v>22536</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>874005.99</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>38.7827</v>
       </c>
-      <c r="E13" s="29" t="n">
-        <v>874005.99</v>
-      </c>
-      <c r="F13" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" s="29" t="inlineStr"/>
+      <c r="G13" s="29" t="inlineStr"/>
+      <c r="H13" s="29" t="n"/>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -5053,17 +5057,14 @@
         <v>22511</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>872627.8199999999</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>38.7644</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>872627.8199999999</v>
-      </c>
-      <c r="F14" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
+      <c r="F14" s="29" t="inlineStr"/>
+      <c r="G14" s="29" t="inlineStr"/>
+      <c r="H14" s="29" t="n"/>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -5074,17 +5075,14 @@
         <v>22468</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>870059.89</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>38.7246</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>870059.89</v>
-      </c>
-      <c r="F15" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" s="29" t="inlineStr"/>
+      <c r="G15" s="29" t="inlineStr"/>
+      <c r="H15" s="29" t="n"/>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -5095,17 +5093,14 @@
         <v>22629</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>879330.26</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>38.8587</v>
       </c>
-      <c r="E16" s="29" t="n">
-        <v>879330.26</v>
-      </c>
-      <c r="F16" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
+      <c r="F16" s="29" t="inlineStr"/>
+      <c r="G16" s="29" t="inlineStr"/>
+      <c r="H16" s="29" t="n"/>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -5116,17 +5111,14 @@
         <v>22436</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>868493.3199999999</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>38.7091</v>
       </c>
-      <c r="E17" s="29" t="n">
-        <v>868493.3199999999</v>
-      </c>
-      <c r="F17" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
+      <c r="F17" s="29" t="inlineStr"/>
+      <c r="G17" s="29" t="inlineStr"/>
+      <c r="H17" s="29" t="n"/>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -5137,17 +5129,14 @@
         <v>22338</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>862356.08</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>38.6045</v>
       </c>
-      <c r="E18" s="29" t="n">
-        <v>862356.08</v>
-      </c>
-      <c r="F18" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
+      <c r="F18" s="29" t="inlineStr"/>
+      <c r="G18" s="29" t="inlineStr"/>
+      <c r="H18" s="29" t="n"/>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -5158,17 +5147,14 @@
         <v>22289</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>858957.2</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>38.5376</v>
       </c>
-      <c r="E19" s="29" t="n">
-        <v>858957.2</v>
-      </c>
-      <c r="F19" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
+      <c r="F19" s="29" t="inlineStr"/>
+      <c r="G19" s="29" t="inlineStr"/>
+      <c r="H19" s="29" t="n"/>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -5179,17 +5165,14 @@
         <v>23531</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>906185.64</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>38.5096</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>906185.64</v>
-      </c>
-      <c r="F20" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
+      <c r="F20" s="29" t="inlineStr"/>
+      <c r="G20" s="29" t="inlineStr"/>
+      <c r="H20" s="29" t="n"/>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -5200,17 +5183,14 @@
         <v>21735</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>840685.95</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>38.6789</v>
       </c>
-      <c r="E21" s="29" t="n">
-        <v>840685.95</v>
-      </c>
-      <c r="F21" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
+      <c r="F21" s="29" t="inlineStr"/>
+      <c r="G21" s="29" t="inlineStr"/>
+      <c r="H21" s="29" t="n"/>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -5221,17 +5201,14 @@
         <v>21600</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>830000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>38.4259</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>830000</v>
-      </c>
-      <c r="F22" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
+      <c r="F22" s="29" t="inlineStr"/>
+      <c r="G22" s="29" t="inlineStr"/>
+      <c r="H22" s="29" t="n"/>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -5242,17 +5219,14 @@
         <v>21500</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>820000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>38.1395</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>820000</v>
-      </c>
-      <c r="F23" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" s="29" t="inlineStr"/>
+      <c r="G23" s="29" t="inlineStr"/>
+      <c r="H23" s="29" t="n"/>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -5263,17 +5237,14 @@
         <v>21300</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>813000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>38.169</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>813000</v>
-      </c>
-      <c r="F24" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24" s="29" t="inlineStr"/>
+      <c r="G24" s="29" t="inlineStr"/>
+      <c r="H24" s="29" t="n"/>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -5284,17 +5255,14 @@
         <v>20600</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>785000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>38.1068</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>785000</v>
-      </c>
-      <c r="F25" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
+      <c r="F25" s="29" t="inlineStr"/>
+      <c r="G25" s="29" t="inlineStr"/>
+      <c r="H25" s="29" t="n"/>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -5305,17 +5273,14 @@
         <v>20000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>760000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>38</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>760000</v>
-      </c>
-      <c r="F26" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
+      <c r="F26" s="29" t="inlineStr"/>
+      <c r="G26" s="29" t="inlineStr"/>
+      <c r="H26" s="29" t="n"/>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -5326,17 +5291,14 @@
         <v>19000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>725000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>38.1579</v>
       </c>
-      <c r="E27" s="29" t="n">
-        <v>725000</v>
-      </c>
-      <c r="F27" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
+      <c r="F27" s="29" t="inlineStr"/>
+      <c r="G27" s="29" t="inlineStr"/>
+      <c r="H27" s="29" t="n"/>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -5347,17 +5309,14 @@
         <v>18000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>700000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>38.8889</v>
       </c>
-      <c r="E28" s="29" t="n">
-        <v>700000</v>
-      </c>
-      <c r="F28" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
+      <c r="F28" s="29" t="inlineStr"/>
+      <c r="G28" s="29" t="inlineStr"/>
+      <c r="H28" s="29" t="n"/>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -5368,17 +5327,14 @@
         <v>17000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>680000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>40</v>
       </c>
-      <c r="E29" s="29" t="n">
-        <v>680000</v>
-      </c>
-      <c r="F29" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F29" s="29" t="inlineStr"/>
+      <c r="G29" s="29" t="inlineStr"/>
+      <c r="H29" s="29" t="n"/>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -5389,17 +5345,14 @@
         <v>15000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>40</v>
       </c>
-      <c r="E30" s="29" t="n">
-        <v>600000</v>
-      </c>
-      <c r="F30" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
+      <c r="F30" s="29" t="inlineStr"/>
+      <c r="G30" s="29" t="inlineStr"/>
+      <c r="H30" s="29" t="n"/>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -5410,17 +5363,14 @@
         <v>14000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>565000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>40.3571</v>
       </c>
-      <c r="E31" s="29" t="n">
-        <v>565000</v>
-      </c>
-      <c r="F31" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
+      <c r="F31" s="29" t="inlineStr"/>
+      <c r="G31" s="29" t="inlineStr"/>
+      <c r="H31" s="29" t="n"/>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -5431,17 +5381,14 @@
         <v>13000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>38.4615</v>
       </c>
-      <c r="E32" s="29" t="n">
-        <v>500000</v>
-      </c>
-      <c r="F32" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
+      <c r="F32" s="29" t="inlineStr"/>
+      <c r="G32" s="29" t="inlineStr"/>
+      <c r="H32" s="29" t="n"/>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -5452,17 +5399,14 @@
         <v>12500</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>32</v>
       </c>
-      <c r="E33" s="29" t="n">
-        <v>400000</v>
-      </c>
-      <c r="F33" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F33" s="29" t="inlineStr"/>
+      <c r="G33" s="29" t="inlineStr"/>
+      <c r="H33" s="29" t="n"/>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -5473,17 +5417,14 @@
         <v>12000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>25</v>
       </c>
-      <c r="E34" s="29" t="n">
-        <v>300000</v>
-      </c>
-      <c r="F34" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
+      <c r="F34" s="29" t="inlineStr"/>
+      <c r="G34" s="29" t="inlineStr"/>
+      <c r="H34" s="29" t="n"/>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -5494,17 +5435,14 @@
         <v>10500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>280000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>26.6667</v>
       </c>
-      <c r="E35" s="29" t="n">
-        <v>280000</v>
-      </c>
-      <c r="F35" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
+      <c r="F35" s="29" t="inlineStr"/>
+      <c r="G35" s="29" t="inlineStr"/>
+      <c r="H35" s="29" t="n"/>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -5515,17 +5453,14 @@
         <v>9000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>230000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>25.5556</v>
       </c>
-      <c r="E36" s="29" t="n">
-        <v>230000</v>
-      </c>
-      <c r="F36" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
+      <c r="F36" s="29" t="inlineStr"/>
+      <c r="G36" s="29" t="inlineStr"/>
+      <c r="H36" s="29" t="n"/>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -5536,17 +5471,14 @@
         <v>8000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>225000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>28.125</v>
       </c>
-      <c r="E37" s="29" t="n">
-        <v>225000</v>
-      </c>
-      <c r="F37" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
+      <c r="F37" s="29" t="inlineStr"/>
+      <c r="G37" s="29" t="inlineStr"/>
+      <c r="H37" s="29" t="n"/>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -5557,17 +5489,14 @@
         <v>7000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>215000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>30.7143</v>
       </c>
-      <c r="E38" s="29" t="n">
-        <v>215000</v>
-      </c>
-      <c r="F38" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
+      <c r="F38" s="29" t="inlineStr"/>
+      <c r="G38" s="29" t="inlineStr"/>
+      <c r="H38" s="29" t="n"/>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -5578,17 +5507,14 @@
         <v>6000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>33.3333</v>
       </c>
-      <c r="E39" s="29" t="n">
-        <v>200000</v>
-      </c>
-      <c r="F39" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
+      <c r="F39" s="29" t="inlineStr"/>
+      <c r="G39" s="29" t="inlineStr"/>
+      <c r="H39" s="29" t="n"/>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -5599,17 +5525,14 @@
         <v>5649</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>188760.85</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>33.4161</v>
       </c>
-      <c r="E40" s="29" t="n">
-        <v>188760.85</v>
-      </c>
-      <c r="F40" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
+      <c r="F40" s="29" t="inlineStr"/>
+      <c r="G40" s="29" t="inlineStr"/>
+      <c r="H40" s="29" t="n"/>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -5620,17 +5543,14 @@
         <v>5474</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>180000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>32.8811</v>
       </c>
-      <c r="E41" s="29" t="n">
-        <v>180000</v>
-      </c>
-      <c r="F41" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
+      <c r="F41" s="29" t="inlineStr"/>
+      <c r="G41" s="29" t="inlineStr"/>
+      <c r="H41" s="29" t="n"/>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -5641,17 +5561,14 @@
         <v>5000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>160000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>32</v>
       </c>
-      <c r="E42" s="29" t="n">
-        <v>160000</v>
-      </c>
-      <c r="F42" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
+      <c r="F42" s="29" t="inlineStr"/>
+      <c r="G42" s="29" t="inlineStr"/>
+      <c r="H42" s="29" t="n"/>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -5662,17 +5579,14 @@
         <v>4900</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>30.6122</v>
       </c>
-      <c r="E43" s="29" t="n">
-        <v>150000</v>
-      </c>
-      <c r="F43" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
+      <c r="F43" s="29" t="inlineStr"/>
+      <c r="G43" s="29" t="inlineStr"/>
+      <c r="H43" s="29" t="n"/>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -5683,17 +5597,14 @@
         <v>4800</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>145000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>30.2083</v>
       </c>
-      <c r="E44" s="29" t="n">
-        <v>145000</v>
-      </c>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
+      <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -5704,17 +5615,14 @@
         <v>4500</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>132000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>29.3333</v>
       </c>
-      <c r="E45" s="29" t="n">
-        <v>132000</v>
-      </c>
-      <c r="F45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
+      <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -5725,17 +5633,14 @@
         <v>4000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>30</v>
       </c>
-      <c r="E46" s="29" t="n">
-        <v>120000</v>
-      </c>
-      <c r="F46" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -5746,17 +5651,14 @@
         <v>3800</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>26.3158</v>
       </c>
-      <c r="E47" s="29" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F47" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -5767,17 +5669,14 @@
         <v>3700</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>27.027</v>
       </c>
-      <c r="E48" s="29" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F48" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -5788,17 +5687,14 @@
         <v>3600</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>96000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>26.6667</v>
       </c>
-      <c r="E49" s="29" t="n">
-        <v>96000</v>
-      </c>
-      <c r="F49" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -5809,17 +5705,14 @@
         <v>3500</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>22.8571</v>
       </c>
-      <c r="E50" s="29" t="n">
-        <v>80000</v>
-      </c>
-      <c r="F50" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -5830,17 +5723,14 @@
         <v>2900</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>65000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>22.4138</v>
       </c>
-      <c r="E51" s="29" t="n">
-        <v>65000</v>
-      </c>
-      <c r="F51" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -5851,17 +5741,14 @@
         <v>2700</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>18.5185</v>
       </c>
-      <c r="E52" s="29" t="n">
-        <v>50000</v>
-      </c>
-      <c r="F52" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -5872,17 +5759,14 @@
         <v>2500</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>45000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="E53" s="29" t="n">
-        <v>45000</v>
-      </c>
-      <c r="F53" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -5893,17 +5777,14 @@
         <v>2300</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>42000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>18.2609</v>
       </c>
-      <c r="E54" s="29" t="n">
-        <v>42000</v>
-      </c>
-      <c r="F54" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -5914,17 +5795,14 @@
         <v>2200</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>18.1818</v>
       </c>
-      <c r="E55" s="29" t="n">
-        <v>40000</v>
-      </c>
-      <c r="F55" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -5935,17 +5813,14 @@
         <v>2000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>38000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>19</v>
       </c>
-      <c r="E56" s="29" t="n">
-        <v>38000</v>
-      </c>
-      <c r="F56" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -5956,17 +5831,14 @@
         <v>2000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>36000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="E57" s="29" t="n">
-        <v>36000</v>
-      </c>
-      <c r="F57" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -5977,17 +5849,14 @@
         <v>1800</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>19.4444</v>
       </c>
-      <c r="E58" s="29" t="n">
-        <v>35000</v>
-      </c>
-      <c r="F58" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -5998,17 +5867,14 @@
         <v>1800</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>33000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>18.3333</v>
       </c>
-      <c r="E59" s="29" t="n">
-        <v>33000</v>
-      </c>
-      <c r="F59" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -6019,17 +5885,14 @@
         <v>1600</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>18.75</v>
       </c>
-      <c r="E60" s="29" t="n">
-        <v>30000</v>
-      </c>
-      <c r="F60" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -6040,17 +5903,14 @@
         <v>1500</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>27000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="E61" s="29" t="n">
-        <v>27000</v>
-      </c>
-      <c r="F61" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -6061,17 +5921,14 @@
         <v>1200</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>20.8333</v>
       </c>
-      <c r="E62" s="29" t="n">
-        <v>25000</v>
-      </c>
-      <c r="F62" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -6082,17 +5939,14 @@
         <v>1200</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>23000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>19.1667</v>
       </c>
-      <c r="E63" s="29" t="n">
-        <v>23000</v>
-      </c>
-      <c r="F63" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -6103,17 +5957,14 @@
         <v>1200</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>21000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>17.5</v>
       </c>
-      <c r="E64" s="29" t="n">
-        <v>21000</v>
-      </c>
-      <c r="F64" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -6124,17 +5975,14 @@
         <v>1200</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>16.6667</v>
       </c>
-      <c r="E65" s="29" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F65" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -6145,17 +5993,14 @@
         <v>1100</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>19000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>17.2727</v>
       </c>
-      <c r="E66" s="29" t="n">
-        <v>19000</v>
-      </c>
-      <c r="F66" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -6166,17 +6011,14 @@
         <v>1100</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>19000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>17.2727</v>
       </c>
-      <c r="E67" s="29" t="n">
-        <v>19000</v>
-      </c>
-      <c r="F67" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -6187,17 +6029,14 @@
         <v>1000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="E68" s="29" t="n">
-        <v>18000</v>
-      </c>
-      <c r="F68" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -6207,17 +6046,14 @@
         <v>1000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>16</v>
       </c>
-      <c r="E69" s="29" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F69" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -6227,17 +6063,14 @@
         <v>950</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>15.7895</v>
       </c>
-      <c r="E70" s="29" t="n">
-        <v>15000</v>
-      </c>
-      <c r="F70" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -6247,17 +6080,14 @@
         <v>950</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>15.7895</v>
       </c>
-      <c r="E71" s="29" t="n">
-        <v>15000</v>
-      </c>
-      <c r="F71" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -6267,17 +6097,14 @@
         <v>950</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>15.7895</v>
       </c>
-      <c r="E72" s="29" t="n">
-        <v>15000</v>
-      </c>
-      <c r="F72" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -6287,17 +6114,14 @@
         <v>950</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>15.7895</v>
       </c>
-      <c r="E73" s="29" t="n">
-        <v>15000</v>
-      </c>
-      <c r="F73" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -6307,17 +6131,14 @@
         <v>750</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>16</v>
       </c>
-      <c r="E74" s="29" t="n">
-        <v>12000</v>
-      </c>
-      <c r="F74" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -6325,6 +6146,8 @@
       <c r="D75" s="29" t="n"/>
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -6332,6 +6155,8 @@
       <c r="D76" s="29" t="n"/>
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -6641,7 +6466,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6720,10 +6545,10 @@
         <v>30360</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>795614.97</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>26.206</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>795614.97</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2465.01</v>
@@ -6742,10 +6567,10 @@
         <v>29580</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>610576</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>20.6415</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>610576</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>20116.06</v>
@@ -6764,10 +6589,10 @@
         <v>26979</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>684653</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>25.3773</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>684653</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>11751.28</v>
@@ -6786,10 +6611,10 @@
         <v>27863</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>696080</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>24.9822</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>696080</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>9989.629999999999</v>
@@ -6808,10 +6633,10 @@
         <v>24151</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>522997</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>21.6553</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>522997</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>4541</v>
@@ -6828,10 +6653,10 @@
         <v>31433</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>673104</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>21.4139</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>673104</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="inlineStr"/>
@@ -6846,10 +6671,10 @@
         <v>21995</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>512670</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>23.3085</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>512670</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="inlineStr"/>
@@ -6864,10 +6689,10 @@
         <v>22584</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>529413</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>23.442</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>529413</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="inlineStr"/>
@@ -6882,10 +6707,10 @@
         <v>17142</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>399515</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>23.3061</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>399515</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2893.3</v>
@@ -6904,10 +6729,10 @@
         <v>6332</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>148174</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>23.3993</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>148174</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>8896.75</v>
@@ -6926,10 +6751,10 @@
         <v>14054</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>331711</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>23.6026</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>331711</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -6944,10 +6769,10 @@
         <v>12482</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>295464.85</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>23.6712</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>295464.85</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -6962,10 +6787,10 @@
         <v>12375</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>293768</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>23.7398</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>293768</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -6980,10 +6805,10 @@
         <v>11863</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>282446</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>23.8083</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>282446</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -6998,10 +6823,10 @@
         <v>11784</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>281372.53</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>23.8769</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>281372.53</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -7016,10 +6841,10 @@
         <v>11878</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>284421.01</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>23.9454</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>284421.01</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -7034,10 +6859,10 @@
         <v>11499</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>276141.74</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>24.014</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>276141.74</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -7052,10 +6877,10 @@
         <v>11123</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>267862.47</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>24.0826</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>267862.47</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -7070,10 +6895,10 @@
         <v>10748</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>259583.21</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>24.1511</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>259583.21</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -7088,10 +6913,10 @@
         <v>10376</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>251303.94</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>24.2197</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>251303.94</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -7106,10 +6931,10 @@
         <v>10005</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>243024.67</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>24.2898</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>243024.67</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -7124,10 +6949,10 @@
         <v>9636</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>234745.4</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>24.3614</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>234745.4</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -7142,10 +6967,10 @@
         <v>9269</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>226466.14</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>24.433</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>226466.14</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -7160,10 +6985,10 @@
         <v>8904</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>218186.87</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>24.5047</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>218186.87</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -7178,10 +7003,10 @@
         <v>8631</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>212112.25</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>24.5763</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>212112.25</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -7196,10 +7021,10 @@
         <v>8456</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>208416.52</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>24.6479</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>208416.52</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -7214,10 +7039,10 @@
         <v>8282</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>204720.8</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>24.7196</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>204720.8</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -7232,10 +7057,10 @@
         <v>8109</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>201025.08</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>24.7912</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>201025.08</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -7250,10 +7075,10 @@
         <v>7937</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>197329.35</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>24.8628</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>197329.35</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -7268,10 +7093,10 @@
         <v>7766</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>193633.63</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>24.9345</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>193633.63</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -7286,10 +7111,10 @@
         <v>7596</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>189937.91</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>25.0061</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>189937.91</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -7304,10 +7129,10 @@
         <v>7427</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>186242.18</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>25.0777</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>186242.18</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -7322,10 +7147,10 @@
         <v>7258</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>182546.46</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>25.1494</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>182546.46</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -7345,676 +7170,363 @@
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="29" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="C46" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
       <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="29" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="C47" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C47" s="29" t="inlineStr"/>
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
       <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="28" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C48" s="29" t="inlineStr"/>
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C49" s="29" t="inlineStr"/>
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="28" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" s="28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" s="28" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="28" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="28" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="28" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="28" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="28" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" s="28" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="28" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="28" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="28" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="28" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="28" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="28" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="28" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="17" t="n"/>
-      <c r="D75" s="17" t="n"/>
-      <c r="E75" s="18" t="n"/>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="29" t="n"/>
+      <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="17" t="n"/>
-      <c r="D76" s="17" t="n"/>
-      <c r="E76" s="18" t="n"/>
+      <c r="B76" s="29" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="29" t="n"/>
+      <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -8324,7 +7836,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8403,10 +7915,10 @@
         <v>25597</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>575550</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>22.4847</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>575550</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.14</v>
@@ -8423,10 +7935,10 @@
         <v>24852</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>558480</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>22.472</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>558480</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -8443,10 +7955,10 @@
         <v>23869</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>535698</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>22.4432</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>535698</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -8463,10 +7975,10 @@
         <v>26712</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>605998</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>22.6865</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>605998</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -8483,10 +7995,10 @@
         <v>26000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>590387</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>22.7072</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>590387</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -8503,10 +8015,10 @@
         <v>26000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>578836</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>22.2629</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>578836</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.14</v>
@@ -8523,10 +8035,10 @@
         <v>25000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>550722</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>22.0289</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>550722</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.25</v>
@@ -8543,10 +8055,10 @@
         <v>22000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>488830</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>22.2195</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>488830</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1.01</v>
@@ -8563,10 +8075,10 @@
         <v>21422</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>475842.77</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>22.2126</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>475842.77</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>0.13</v>
@@ -8583,10 +8095,10 @@
         <v>20218</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>449270.48</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>22.2209</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>449270.48</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="inlineStr"/>
@@ -8601,10 +8113,10 @@
         <v>19002</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>422275.27</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>22.2223</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>422275.27</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="n">
@@ -8621,10 +8133,10 @@
         <v>17775</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>394911.12</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>22.2173</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>394911.12</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="n">
@@ -8641,10 +8153,10 @@
         <v>16537</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>367230.82</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>22.2066</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>367230.82</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="n">
@@ -8661,10 +8173,10 @@
         <v>15291</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>339309.29</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>22.1907</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>339309.29</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="n">
@@ -8681,10 +8193,10 @@
         <v>14039</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>311249.44</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>22.1703</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>311249.44</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="n">
@@ -8701,10 +8213,10 @@
         <v>12787</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>283178.11</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>22.1463</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>283178.11</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="n">
@@ -8721,10 +8233,10 @@
         <v>11539</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>255235.48</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>22.1193</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>255235.48</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="n">
@@ -8741,10 +8253,10 @@
         <v>10664</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>235664.88</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>22.099</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>235664.88</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="n">
@@ -8761,10 +8273,10 @@
         <v>9783</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>216761.35</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>22.1559</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>216761.35</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -8781,10 +8293,10 @@
         <v>10745</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>236196.32</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>21.9814</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>236196.32</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -8801,10 +8313,10 @@
         <v>9814</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>215511.42</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>21.9607</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>215511.42</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -8821,10 +8333,10 @@
         <v>8876</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>194703.47</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>21.9356</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>194703.47</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -8841,10 +8353,10 @@
         <v>7953</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>174247.78</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>21.9105</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>174247.78</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -8861,10 +8373,10 @@
         <v>7056</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>154443.25</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>21.8884</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>154443.25</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -8881,10 +8393,10 @@
         <v>6189</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>135365.37</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>21.8708</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>135365.37</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -8901,10 +8413,10 @@
         <v>5352</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>116980.69</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>21.8588</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>116980.69</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -8921,10 +8433,10 @@
         <v>4540</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>99214.25</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>21.8529</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>99214.25</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -8941,10 +8453,10 @@
         <v>3751</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>81982.62</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>21.8537</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>81982.62</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -8961,10 +8473,10 @@
         <v>2983</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>65207.8</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>21.8619</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>65207.8</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -8981,10 +8493,10 @@
         <v>2232</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>48821.91</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>21.878</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>48821.91</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -9001,10 +8513,10 @@
         <v>1496</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>32767.75</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>21.9026</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>32767.75</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -9021,10 +8533,10 @@
         <v>550</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>21.8182</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>12000</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -9041,10 +8553,10 @@
         <v>520</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>11500</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>22.1154</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>11500</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -9061,10 +8573,10 @@
         <v>10000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1.1</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>11000</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -9081,10 +8593,10 @@
         <v>9000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1.1111</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>10000</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -9101,10 +8613,10 @@
         <v>9000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1.1111</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>10000</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -9121,10 +8633,10 @@
         <v>8000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1.125</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>9000</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -9141,10 +8653,10 @@
         <v>8000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1.125</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>9000</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -9161,10 +8673,10 @@
         <v>7000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1.1429</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>8000</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -9181,10 +8693,10 @@
         <v>7000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1.1429</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>8000</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -9201,10 +8713,10 @@
         <v>6000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>7000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1.1667</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>7000</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -9221,10 +8733,10 @@
         <v>6000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>7000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1.1667</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>7000</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -9241,10 +8753,10 @@
         <v>5000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1.2</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>6000</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -9261,10 +8773,10 @@
         <v>5000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1.2</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>6000</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -9281,10 +8793,10 @@
         <v>4000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1.25</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>5000</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -9301,10 +8813,10 @@
         <v>4000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1.25</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>5000</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -9321,10 +8833,10 @@
         <v>3000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1.3333</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>4000</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -9341,10 +8853,10 @@
         <v>3000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>3000</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -9361,10 +8873,10 @@
         <v>3000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>3000</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -9381,10 +8893,10 @@
         <v>3000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1.3333</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>4000</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -9401,10 +8913,10 @@
         <v>3000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1.3333</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>4000</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -9421,10 +8933,10 @@
         <v>3000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1.3333</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>4000</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -9441,10 +8953,10 @@
         <v>3000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1.3333</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>4000</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -9461,10 +8973,10 @@
         <v>3000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1.3333</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>4000</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -9481,10 +8993,10 @@
         <v>3000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1.3333</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>4000</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -9501,10 +9013,10 @@
         <v>3000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>3000</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -9521,10 +9033,10 @@
         <v>3000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>3000</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -9540,10 +9052,10 @@
         <v>3000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>3000</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -9559,10 +9071,10 @@
         <v>2000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>2000</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -9578,10 +9090,10 @@
         <v>2000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>2000</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -9597,10 +9109,10 @@
         <v>2000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>2000</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -9616,10 +9128,10 @@
         <v>2000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>2000</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -9635,10 +9147,10 @@
         <v>2000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>2000</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -9972,7 +9484,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10051,17 +9563,16 @@
         <v>23986</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>504722.8</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>21.0427</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>504722.8</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>917.34</v>
       </c>
-      <c r="G12" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G12" s="29" t="inlineStr"/>
+      <c r="H12" s="29" t="n"/>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -10072,17 +9583,16 @@
         <v>23700</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>496800</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>20.962</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>496800</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>770.89</v>
       </c>
-      <c r="G13" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="29" t="inlineStr"/>
+      <c r="H13" s="29" t="n"/>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -10093,17 +9603,16 @@
         <v>23700</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>496700</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>20.9578</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>496700</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>660.48</v>
       </c>
-      <c r="G14" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="29" t="inlineStr"/>
+      <c r="H14" s="29" t="n"/>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -10114,17 +9623,16 @@
         <v>24000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>498100</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>20.7542</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>498100</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>491.17</v>
       </c>
-      <c r="G15" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G15" s="29" t="inlineStr"/>
+      <c r="H15" s="29" t="n"/>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -10135,17 +9643,16 @@
         <v>24400</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>523600</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>21.459</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>523600</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>513.5700000000001</v>
       </c>
-      <c r="G16" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G16" s="29" t="inlineStr"/>
+      <c r="H16" s="29" t="n"/>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -10156,17 +9663,16 @@
         <v>24400</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>511400</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>20.959</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>511400</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>483.42</v>
       </c>
-      <c r="G17" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G17" s="29" t="inlineStr"/>
+      <c r="H17" s="29" t="n"/>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -10177,17 +9683,16 @@
         <v>24700</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>518400</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>20.9879</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>518400</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>458.7</v>
       </c>
-      <c r="G18" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G18" s="29" t="inlineStr"/>
+      <c r="H18" s="29" t="n"/>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -10198,17 +9703,16 @@
         <v>24700</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>526900</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>21.332</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>526900</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>477.75</v>
       </c>
-      <c r="G19" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G19" s="29" t="inlineStr"/>
+      <c r="H19" s="29" t="n"/>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -10219,17 +9723,16 @@
         <v>25000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>536000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>21.44</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>536000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>428.26</v>
       </c>
-      <c r="G20" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G20" s="29" t="inlineStr"/>
+      <c r="H20" s="29" t="n"/>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -10240,17 +9743,16 @@
         <v>25100</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>545300</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>21.7251</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>545300</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>446.13</v>
       </c>
-      <c r="G21" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G21" s="29" t="inlineStr"/>
+      <c r="H21" s="29" t="n"/>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -10261,17 +9763,16 @@
         <v>25100</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>541400</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>21.5697</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>541400</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>437</v>
       </c>
-      <c r="G22" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G22" s="29" t="inlineStr"/>
+      <c r="H22" s="29" t="n"/>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -10282,17 +9783,16 @@
         <v>25300</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>544100</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>21.5059</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>544100</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>417</v>
       </c>
-      <c r="G23" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G23" s="29" t="inlineStr"/>
+      <c r="H23" s="29" t="n"/>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -10303,17 +9803,16 @@
         <v>25340</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>549500</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>21.6851</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>549500</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>377</v>
       </c>
-      <c r="G24" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G24" s="29" t="inlineStr"/>
+      <c r="H24" s="29" t="n"/>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -10324,17 +9823,16 @@
         <v>25340</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>541300</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>21.3615</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>541300</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>437</v>
       </c>
-      <c r="G25" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G25" s="29" t="inlineStr"/>
+      <c r="H25" s="29" t="n"/>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -10345,17 +9843,16 @@
         <v>25360</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>575100</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>22.6774</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>575100</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>401</v>
       </c>
-      <c r="G26" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G26" s="29" t="inlineStr"/>
+      <c r="H26" s="29" t="n"/>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -10366,17 +9863,16 @@
         <v>24100</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>575500</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>23.8797</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>575500</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>484</v>
       </c>
-      <c r="G27" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G27" s="29" t="inlineStr"/>
+      <c r="H27" s="29" t="n"/>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -10387,17 +9883,16 @@
         <v>24300</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>558700</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>22.9918</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>558700</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>472</v>
       </c>
-      <c r="G28" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G28" s="29" t="inlineStr"/>
+      <c r="H28" s="29" t="n"/>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -10408,17 +9903,16 @@
         <v>24900</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>554600</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>22.2731</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>554600</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>502</v>
       </c>
-      <c r="G29" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G29" s="29" t="inlineStr"/>
+      <c r="H29" s="29" t="n"/>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -10429,17 +9923,16 @@
         <v>25270</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>554000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>21.9232</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>554000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>486</v>
       </c>
-      <c r="G30" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G30" s="29" t="inlineStr"/>
+      <c r="H30" s="29" t="n"/>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -10450,17 +9943,16 @@
         <v>25680</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>547100</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>21.3045</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>547100</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>470</v>
       </c>
-      <c r="G31" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G31" s="29" t="inlineStr"/>
+      <c r="H31" s="29" t="n"/>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -10471,17 +9963,16 @@
         <v>25610</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>576700</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>22.5185</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>576700</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>463</v>
       </c>
-      <c r="G32" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G32" s="29" t="inlineStr"/>
+      <c r="H32" s="29" t="n"/>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -10492,17 +9983,16 @@
         <v>23900</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>518700</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>21.7029</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>518700</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>544</v>
       </c>
-      <c r="G33" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G33" s="29" t="inlineStr"/>
+      <c r="H33" s="29" t="n"/>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -10513,17 +10003,16 @@
         <v>24400</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>526800</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>21.5902</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>526800</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>552</v>
       </c>
-      <c r="G34" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G34" s="29" t="inlineStr"/>
+      <c r="H34" s="29" t="n"/>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -10534,17 +10023,16 @@
         <v>25100</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>536700</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>21.3825</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>536700</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>3972.42</v>
       </c>
-      <c r="G35" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G35" s="29" t="inlineStr"/>
+      <c r="H35" s="29" t="n"/>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -10555,17 +10043,16 @@
         <v>25300</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>532400</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>21.0435</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>532400</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>2460</v>
       </c>
-      <c r="G36" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G36" s="29" t="inlineStr"/>
+      <c r="H36" s="29" t="n"/>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -10576,17 +10063,16 @@
         <v>25000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>508500</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>20.34</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>508500</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>955</v>
       </c>
-      <c r="G37" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G37" s="29" t="inlineStr"/>
+      <c r="H37" s="29" t="n"/>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -10597,17 +10083,16 @@
         <v>25000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>549300</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>21.972</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>549300</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>376</v>
       </c>
-      <c r="G38" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G38" s="29" t="inlineStr"/>
+      <c r="H38" s="29" t="n"/>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -10618,17 +10103,16 @@
         <v>25000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>545600</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>21.824</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>545600</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>380</v>
       </c>
-      <c r="G39" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G39" s="29" t="inlineStr"/>
+      <c r="H39" s="29" t="n"/>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -10639,17 +10123,16 @@
         <v>25000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>533600</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>21.344</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>533600</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>333</v>
       </c>
-      <c r="G40" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G40" s="29" t="inlineStr"/>
+      <c r="H40" s="29" t="n"/>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -10660,17 +10143,16 @@
         <v>24400</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>524600</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>21.5</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>524600</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>338</v>
       </c>
-      <c r="G41" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G41" s="29" t="inlineStr"/>
+      <c r="H41" s="29" t="n"/>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -10681,17 +10163,16 @@
         <v>24100</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>505600</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>20.9793</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>505600</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>350</v>
       </c>
-      <c r="G42" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G42" s="29" t="inlineStr"/>
+      <c r="H42" s="29" t="n"/>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -10702,17 +10183,16 @@
         <v>24500</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>465000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>18.9796</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>465000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>304</v>
       </c>
-      <c r="G43" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G43" s="29" t="inlineStr"/>
+      <c r="H43" s="29" t="n"/>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -10723,17 +10203,16 @@
         <v>24200</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>516700</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>21.3512</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>516700</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>312</v>
       </c>
-      <c r="G44" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G44" s="29" t="inlineStr"/>
+      <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -10744,17 +10223,16 @@
         <v>24100</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>557700</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>23.1411</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>557700</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>236</v>
       </c>
-      <c r="G45" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G45" s="29" t="inlineStr"/>
+      <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -10765,17 +10243,16 @@
         <v>24000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>541900</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>22.5792</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>541900</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>226</v>
       </c>
-      <c r="G46" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -10786,17 +10263,16 @@
         <v>23900</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>522400</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>21.8577</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>522400</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>187</v>
       </c>
-      <c r="G47" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -10807,17 +10283,16 @@
         <v>24000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>563500</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>23.4792</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>563500</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G48" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -10828,17 +10303,16 @@
         <v>24200</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>573000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>23.6777</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>573000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G49" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -10849,17 +10323,16 @@
         <v>24000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>552600</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>23.025</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>552600</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G50" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -10870,17 +10343,16 @@
         <v>24100</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>562600</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>23.3444</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>562600</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G51" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -10891,17 +10363,16 @@
         <v>24000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>548500</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>22.8542</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>548500</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G52" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -10912,17 +10383,16 @@
         <v>23700</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>520800</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>21.9747</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>520800</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G53" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -10933,17 +10403,16 @@
         <v>24100</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>568300</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>23.5809</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>568300</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G54" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -10954,17 +10423,16 @@
         <v>23800</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>538900</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>22.6429</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>538900</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G55" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -10975,17 +10443,16 @@
         <v>24000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>549600</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>22.9</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>549600</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G56" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -10996,17 +10463,16 @@
         <v>24200</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>564500</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>23.3264</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>564500</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G57" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -11017,17 +10483,16 @@
         <v>24000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>554100</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>23.0875</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>554100</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G58" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -11038,17 +10503,16 @@
         <v>23900</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>537100</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>22.4728</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>537100</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G59" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -11059,17 +10523,16 @@
         <v>24400</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>554600</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>22.7295</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>554600</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G60" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -11080,17 +10543,16 @@
         <v>24500</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>554500</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>22.6327</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>554500</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G61" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -11101,17 +10563,16 @@
         <v>25300</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>566300</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>22.3834</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>566300</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G62" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -11122,17 +10583,16 @@
         <v>26600</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>603200</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>22.6767</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>603200</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G63" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -11143,17 +10603,16 @@
         <v>27300</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>611100</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>22.3846</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>611100</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G64" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -11164,17 +10623,16 @@
         <v>27800</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>613900</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>22.0827</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>613900</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G65" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -11185,17 +10643,16 @@
         <v>28000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>618200</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>22.0786</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>618200</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G66" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -11206,17 +10663,16 @@
         <v>29000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>638500</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>22.0172</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>638500</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G67" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -11227,17 +10683,16 @@
         <v>28800</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>603600</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>20.9583</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>603600</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G68" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -11247,17 +10702,16 @@
         <v>29400</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>593300</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>20.1803</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>593300</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G69" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -11267,17 +10721,16 @@
         <v>29500</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>568300</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>19.2644</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>568300</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G70" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -11287,17 +10740,16 @@
         <v>29000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>537100</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>18.5207</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>537100</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G71" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -11307,17 +10759,16 @@
         <v>28800</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>556800</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>19.3333</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>556800</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G72" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -11327,17 +10778,16 @@
         <v>27600</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>501000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>18.1522</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>501000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G73" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -11347,17 +10797,16 @@
         <v>26100</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>410000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>15.7088</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>410000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G74" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -11366,6 +10815,7 @@
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
       <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -11374,6 +10824,7 @@
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
       <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -11683,7 +11134,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11762,10 +11213,10 @@
         <v>16192</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>438782.76</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>27.098</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>438782.76</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>109.7</v>
@@ -11784,10 +11235,10 @@
         <v>16377</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>448632</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>27.394</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>448632</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="inlineStr"/>
@@ -11802,10 +11253,10 @@
         <v>18202</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>493162</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>27.0938</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>493162</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="inlineStr"/>
@@ -11820,10 +11271,10 @@
         <v>15632</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>417881</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>26.7324</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>417881</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="inlineStr"/>
@@ -11838,10 +11289,10 @@
         <v>17170</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>463721</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>27.0076</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>463721</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="inlineStr"/>
@@ -11856,10 +11307,10 @@
         <v>18757</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>489864</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>26.1163</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>489864</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="inlineStr"/>
@@ -11874,10 +11325,10 @@
         <v>18078</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>485116</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>26.8346</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>485116</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="inlineStr"/>
@@ -11892,10 +11343,10 @@
         <v>15204</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>409859</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>26.9573</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>409859</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="inlineStr"/>
@@ -11910,10 +11361,10 @@
         <v>14912</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>399798</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>26.8105</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>399798</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="inlineStr"/>
@@ -11928,10 +11379,10 @@
         <v>16347</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>462695</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>28.3046</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>462695</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="inlineStr"/>
@@ -11946,10 +11397,10 @@
         <v>16336</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>430580</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>26.3577</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>430580</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -11968,10 +11419,10 @@
         <v>14872</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>356734</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>23.987</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>356734</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -11990,10 +11441,10 @@
         <v>19666</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>482143</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>24.5166</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>482143</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -12012,10 +11463,10 @@
         <v>16317</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>417229</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>25.5702</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>417229</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -12034,10 +11485,10 @@
         <v>16997</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>446991</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>26.2982</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>446991</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -12056,10 +11507,10 @@
         <v>18749</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>505056</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>26.9378</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>505056</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -12078,10 +11529,10 @@
         <v>18157</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>488814</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>26.9215</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>488814</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -12100,10 +11551,10 @@
         <v>20227</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>542981</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>26.8444</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>542981</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2979</v>
@@ -12122,10 +11573,10 @@
         <v>20337</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>513174</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>25.2335</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>513174</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -12144,10 +11595,10 @@
         <v>25743</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>700201</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>27.1997</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>700201</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>2572</v>
@@ -12166,10 +11617,10 @@
         <v>20039</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>534903</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>26.6931</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>534903</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2963</v>
@@ -12188,10 +11639,10 @@
         <v>21590</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>566828</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>26.2542</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>566828</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>58</v>
@@ -12210,10 +11661,10 @@
         <v>23987</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>635713</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>26.5024</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>635713</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>48</v>
@@ -12232,10 +11683,10 @@
         <v>24316</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>657881</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>27.0555</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>657881</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>56.7</v>
@@ -12254,10 +11705,10 @@
         <v>23178</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>606559</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>26.1696</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>606559</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -12276,10 +11727,10 @@
         <v>19831</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>500492</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>25.2379</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>500492</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>250</v>
@@ -12298,10 +11749,10 @@
         <v>19276</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>484548</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>25.1374</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>484548</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>4</v>
@@ -12320,10 +11771,10 @@
         <v>20845</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>522633</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>25.0723</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>522633</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -12342,10 +11793,10 @@
         <v>23010</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>553163</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>24.0401</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>553163</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>19</v>
@@ -12364,10 +11815,10 @@
         <v>20521</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>497140</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>24.2259</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>497140</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>581</v>
@@ -12386,10 +11837,10 @@
         <v>21318</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>554979</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>26.0334</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>554979</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>2</v>
@@ -12408,10 +11859,10 @@
         <v>24461</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>602851</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>24.6454</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>602851</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>2</v>
@@ -12430,10 +11881,10 @@
         <v>20832</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>534558</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>25.6604</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>534558</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>5014</v>
@@ -12452,10 +11903,10 @@
         <v>18548</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>465510</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>25.0976</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>465510</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -12474,10 +11925,10 @@
         <v>21743</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>548762</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>25.2386</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>548762</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -12496,10 +11947,10 @@
         <v>21238</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>540071</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>25.4295</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>540071</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>21</v>
@@ -12518,10 +11969,10 @@
         <v>19868</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>498031</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>25.067</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>498031</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -12540,10 +11991,10 @@
         <v>24248</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>612617</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>25.2646</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>612617</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -12562,10 +12013,10 @@
         <v>21268</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>523997</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>24.6378</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>523997</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>9309</v>
@@ -12584,10 +12035,10 @@
         <v>18898</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>432023</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>22.8608</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>432023</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>10293</v>
@@ -12606,10 +12057,10 @@
         <v>16300</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>396957</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>24.3532</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>396957</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -12628,10 +12079,10 @@
         <v>19302</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>467729</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>24.2322</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>467729</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -12650,10 +12101,10 @@
         <v>16756</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>407310</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>24.3083</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>407310</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -12672,10 +12123,10 @@
         <v>16546</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>454867</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>27.4911</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>454867</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -12694,10 +12145,10 @@
         <v>15725</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>500626</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>31.8363</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>500626</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>15034</v>
@@ -12716,10 +12167,10 @@
         <v>14020</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>203015</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>14.4804</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>203015</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>8058</v>
@@ -12738,10 +12189,10 @@
         <v>13978</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>206342</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>14.7619</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>206342</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -12760,10 +12211,10 @@
         <v>11309</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>97148</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>8.590299999999999</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>97148</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -12782,10 +12233,10 @@
         <v>8906</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>115329</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>12.9496</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>115329</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -12804,10 +12255,10 @@
         <v>6443</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>75505</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>11.7189</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>75505</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -12826,10 +12277,10 @@
         <v>6055</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>72320</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>11.9438</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>72320</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -12848,10 +12299,10 @@
         <v>5890</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>71261</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>12.0986</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>71261</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -12870,10 +12321,10 @@
         <v>5853</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>72032</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>12.3069</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>72032</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -12892,10 +12343,10 @@
         <v>6058</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>70067</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>11.566</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>70067</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -12914,10 +12365,10 @@
         <v>5655</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>57715</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>10.206</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>57715</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -12936,10 +12387,10 @@
         <v>3975</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>41038</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>10.324</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>41038</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -12958,10 +12409,10 @@
         <v>4278</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>41747</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>9.7585</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>41747</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -12979,10 +12430,10 @@
         <v>3677</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>47658</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>12.9611</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>47658</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -13000,10 +12451,10 @@
         <v>3517</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>35402</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>10.066</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>35402</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -13021,10 +12472,10 @@
         <v>3591</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>33558</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>9.345000000000001</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>33558</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -13042,10 +12493,10 @@
         <v>2326</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>22174</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>9.533100000000001</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>22174</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -13063,10 +12514,10 @@
         <v>2151</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>21849</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>10.1576</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>21849</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -13084,10 +12535,10 @@
         <v>1634</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>16652</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>10.1909</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>16652</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
